--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787431.2777906567</v>
+        <v>783164.850387099</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11581862.08844702</v>
+        <v>11581862.088447</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>173.6320210463239</v>
+      </c>
+      <c r="F2" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="C2" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65.59588116322361</v>
       </c>
       <c r="G2" t="n">
         <v>229.9609751381512</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -800,10 +800,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>46.89475732771442</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>170.5883721316902</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.84173848903534</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>135.5413370468854</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>28.67007943644657</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,61 +910,61 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G5" t="n">
+        <v>9.031127956876844</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>221.2655964161775</v>
-      </c>
-      <c r="U5" t="n">
-        <v>173.6320210463239</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>67.1731435106725</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>76.41664561676745</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.532565933026884</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.05053585596326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,61 +1138,61 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65.59588116322361</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G8" t="n">
+        <v>9.031127956876844</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37.36545815842034</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T8" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136.9537457384598</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.0602290075064</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>83.47887733921516</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>87.519456123834</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>201.6481915883993</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>217.7681076030422</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>268.2961229029834</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,7 +1384,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.4620817893195</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>129.0937799651481</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0696785763428</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>79.30650718197028</v>
       </c>
       <c r="I12" t="n">
-        <v>19.98907165281098</v>
+        <v>19.98907165281121</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>32.6493286310756</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>188.5222582428364</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5460136535496</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -1593,10 +1593,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>210.5579161436248</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.5352218771794</v>
+        <v>44.40648885051144</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.4620817893195</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.7732258656781</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.46309336370723</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0696785763428</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556997</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>118.0197060375994</v>
@@ -1706,7 +1706,7 @@
         <v>79.30650718197028</v>
       </c>
       <c r="I15" t="n">
-        <v>19.98907165281098</v>
+        <v>19.98907165281121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>167.5159943479853</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.5222582428364</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>230.3546300009147</v>
@@ -1830,7 +1830,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>210.5579161436248</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>96.71477354856981</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>235.9864429102635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.46309336370723</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.3970968176954</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>118.0197060375994</v>
       </c>
       <c r="H18" t="n">
-        <v>79.30650718197028</v>
+        <v>79.30650718197052</v>
       </c>
       <c r="I18" t="n">
         <v>19.98907165281098</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.6661650522534</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.1607152921553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U19" t="n">
         <v>282.5460136535496</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>180.6754489659684</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>271.117427340595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I20" t="n">
         <v>76.46309336370723</v>
@@ -2137,19 +2137,19 @@
         <v>214.3970968176954</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0696785763428</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.54357698372339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>171.8301442942947</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9072807229298</v>
+        <v>207.9072807229305</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>188.5222582428364</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5460136535496</v>
@@ -2301,13 +2301,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>196.4681062927866</v>
       </c>
       <c r="X22" t="n">
-        <v>210.5579161436248</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>214.6429547954289</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>242.0183305562788</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.3970968176954</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>17.13685694732084</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -2484,10 +2484,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.8676932671262</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5460136535496</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.45197320945919</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>87.45609232156322</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.46309336370723</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>129.0937799651481</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.3970968176954</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0696785763428</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>235.9864429102631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>122.1859710441422</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -2721,16 +2721,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>112.6332969815374</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.08632162173582</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>214.3970968176954</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>136.552671057104</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>97.40457163067308</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.5222582428364</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5460136535496</v>
@@ -3012,10 +3012,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>210.5579161436245</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.46309336370723</v>
+        <v>15.79388035770239</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>253.0696785763428</v>
       </c>
       <c r="V32" t="n">
-        <v>322.8209746299299</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.6901590220662</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.6661650522534</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5460136535496</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7565676396861</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -3255,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3274,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>77.95751473450315</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.46309336370723</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>129.0937799651481</v>
       </c>
       <c r="T35" t="n">
         <v>214.3970968176954</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>288.6299152801386</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.6661650522534</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>211.2674132137159</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>196.457754020639</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>407.4620817893195</v>
+        <v>89.84293825443859</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>214.0750748821201</v>
+        <v>253.0696785763428</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.9877713503393</v>
+        <v>117.9877713503395</v>
       </c>
       <c r="T39" t="n">
         <v>171.8301442942947</v>
@@ -3672,10 +3672,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>188.5222582428364</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>196.9738283916963</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>21.61762829883181</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>363.248753406224</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.60457401851227</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.3970968176954</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0696785763428</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3839,7 +3839,7 @@
         <v>79.30650718197028</v>
       </c>
       <c r="I42" t="n">
-        <v>19.98907165281032</v>
+        <v>19.98907165281121</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>84.71261963066704</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>36.28189100001204</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -3915,7 +3915,7 @@
         <v>165.8676932671262</v>
       </c>
       <c r="H43" t="n">
-        <v>147.6661650522534</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>183.6274020233818</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>304.7732258656781</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>129.0937799651481</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.3970968176954</v>
       </c>
       <c r="U44" t="n">
         <v>253.0696785763428</v>
@@ -4039,10 +4039,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>80.88455347767993</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>79.30650718197028</v>
       </c>
       <c r="I45" t="n">
-        <v>19.98907165281209</v>
+        <v>19.98907165281121</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>147.6661650522534</v>
       </c>
       <c r="I46" t="n">
-        <v>110.597691360653</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>188.5222582428364</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5460136535496</v>
+        <v>128.5135938742849</v>
       </c>
       <c r="V46" t="n">
-        <v>20.48711678056405</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.5600872817448</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="C2" t="n">
-        <v>455.276274010885</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="D2" t="n">
-        <v>455.276274010885</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="E2" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F2" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G2" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H2" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I2" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L2" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M2" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N2" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O2" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P2" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T2" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="U2" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="V2" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="W2" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="X2" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.8439005526046</v>
+        <v>658.3503843975433</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="C3" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="D3" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="E3" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="F3" t="n">
-        <v>138.4566959391877</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="G3" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N3" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O3" t="n">
-        <v>701.380974171361</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P3" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T3" t="n">
-        <v>742.8600887515131</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U3" t="n">
-        <v>532.7969454301549</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="V3" t="n">
-        <v>310.256943801222</v>
+        <v>328.3930354002468</v>
       </c>
       <c r="W3" t="n">
-        <v>262.8885020560559</v>
+        <v>328.3930354002468</v>
       </c>
       <c r="X3" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="Y3" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.34812901007768</v>
+        <v>374.6133792164462</v>
       </c>
       <c r="C4" t="n">
-        <v>29.34812901007768</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="D4" t="n">
-        <v>29.34812901007768</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="E4" t="n">
-        <v>29.34812901007768</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F4" t="n">
-        <v>29.34812901007768</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G4" t="n">
-        <v>29.34812901007768</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H4" t="n">
-        <v>29.34812901007768</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.34812901007768</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
@@ -4515,25 +4515,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U4" t="n">
-        <v>252.4601901934343</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>252.4601901934343</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>252.4601901934343</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X4" t="n">
-        <v>252.4601901934343</v>
+        <v>782.9334590911042</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.34812901007768</v>
+        <v>559.8213979077475</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.9645045527716</v>
+        <v>259.8030427535047</v>
       </c>
       <c r="C5" t="n">
-        <v>482.9645045527716</v>
+        <v>259.8030427535047</v>
       </c>
       <c r="D5" t="n">
-        <v>482.9645045527716</v>
+        <v>259.8030427535047</v>
       </c>
       <c r="E5" t="n">
-        <v>482.9645045527716</v>
+        <v>259.8030427535047</v>
       </c>
       <c r="F5" t="n">
-        <v>250.6806912819119</v>
+        <v>27.51922948264486</v>
       </c>
       <c r="G5" t="n">
         <v>18.39687801105209</v>
@@ -4567,22 +4567,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L5" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M5" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N5" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O5" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P5" t="n">
         <v>919.8439005526046</v>
@@ -4591,28 +4591,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T5" t="n">
-        <v>658.3503843975433</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U5" t="n">
-        <v>482.9645045527716</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V5" t="n">
-        <v>482.9645045527716</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W5" t="n">
-        <v>482.9645045527716</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X5" t="n">
-        <v>482.9645045527716</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.9645045527716</v>
+        <v>288.7627189519355</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399.3349929451682</v>
+        <v>436.824746216967</v>
       </c>
       <c r="C6" t="n">
-        <v>399.3349929451682</v>
+        <v>286.1705157770592</v>
       </c>
       <c r="D6" t="n">
-        <v>399.3349929451682</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="E6" t="n">
-        <v>262.8885020560559</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="F6" t="n">
-        <v>138.4566959391877</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="G6" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H6" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N6" t="n">
+        <v>586.8345910043187</v>
+      </c>
+      <c r="O6" t="n">
+        <v>586.8345910043187</v>
+      </c>
+      <c r="P6" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O6" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="P6" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V6" t="n">
-        <v>697.3038989236717</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W6" t="n">
-        <v>467.1866530569586</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="X6" t="n">
-        <v>399.3349929451682</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="Y6" t="n">
-        <v>399.3349929451682</v>
+        <v>588.6210806579284</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.2666167201658</v>
+        <v>499.7939211833456</v>
       </c>
       <c r="C7" t="n">
-        <v>493.061498786155</v>
+        <v>329.5888032493348</v>
       </c>
       <c r="D7" t="n">
-        <v>337.4283856886698</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="I7" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="K7" t="n">
         <v>100.231919120994</v>
@@ -4734,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4755,22 +4755,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526046</v>
+        <v>917.2857531455068</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526046</v>
+        <v>685.001939874647</v>
       </c>
       <c r="V7" t="n">
-        <v>687.5600872817448</v>
+        <v>685.001939874647</v>
       </c>
       <c r="W7" t="n">
-        <v>687.5600872817448</v>
+        <v>685.001939874647</v>
       </c>
       <c r="X7" t="n">
-        <v>687.5600872817448</v>
+        <v>685.001939874647</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.2666167201658</v>
+        <v>685.001939874647</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C8" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D8" t="n">
-        <v>853.5854347311666</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="E8" t="n">
-        <v>621.3016214603068</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="F8" t="n">
-        <v>389.017808189447</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="G8" t="n">
-        <v>156.7339949185873</v>
+        <v>56.1397650397595</v>
       </c>
       <c r="H8" t="n">
-        <v>156.7339949185873</v>
+        <v>56.1397650397595</v>
       </c>
       <c r="I8" t="n">
         <v>18.39687801105209</v>
@@ -4807,19 +4807,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M8" t="n">
         <v>52.01424425134721</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>279.6756096381168</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="N8" t="n">
-        <v>734.998340411656</v>
-      </c>
-      <c r="O8" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P8" t="n">
         <v>734.998340411656</v>
@@ -4831,25 +4831,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>817.762861151083</v>
+        <v>321.1053601114104</v>
       </c>
       <c r="C9" t="n">
-        <v>667.1086307111752</v>
+        <v>321.1053601114104</v>
       </c>
       <c r="D9" t="n">
-        <v>537.0196633326556</v>
+        <v>191.0163927328907</v>
       </c>
       <c r="E9" t="n">
-        <v>400.5731724435433</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="F9" t="n">
-        <v>276.1413663266751</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G9" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4889,19 +4889,19 @@
         <v>246.0582433978217</v>
       </c>
       <c r="L9" t="n">
-        <v>246.0582433978217</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M9" t="n">
         <v>473.7196087845913</v>
       </c>
       <c r="N9" t="n">
-        <v>701.380974171361</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O9" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
@@ -4922,13 +4922,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W9" t="n">
-        <v>919.8439005526046</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="X9" t="n">
-        <v>919.8439005526046</v>
+        <v>500.4195770359032</v>
       </c>
       <c r="Y9" t="n">
-        <v>919.8439005526046</v>
+        <v>321.1053601114104</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.77514818495014</v>
+        <v>831.4404095184289</v>
       </c>
       <c r="C10" t="n">
-        <v>48.77514818495014</v>
+        <v>661.2352915844181</v>
       </c>
       <c r="D10" t="n">
-        <v>48.77514818495014</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="E10" t="n">
-        <v>48.77514818495014</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="F10" t="n">
-        <v>48.77514818495014</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G10" t="n">
-        <v>48.77514818495014</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H10" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I10" t="n">
         <v>48.77514818495014</v>
@@ -4989,25 +4989,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V10" t="n">
-        <v>252.4601901934343</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W10" t="n">
-        <v>48.77514818495014</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X10" t="n">
-        <v>48.77514818495014</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.77514818495014</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1882.116972348886</v>
+        <v>1136.136382465172</v>
       </c>
       <c r="C11" t="n">
-        <v>1662.149186891268</v>
+        <v>1136.136382465172</v>
       </c>
       <c r="D11" t="n">
-        <v>1276.708058107936</v>
+        <v>865.1301977146834</v>
       </c>
       <c r="E11" t="n">
-        <v>874.12453322448</v>
+        <v>462.5466728312279</v>
       </c>
       <c r="F11" t="n">
-        <v>457.2300947544578</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="G11" t="n">
         <v>45.65223436120566</v>
@@ -5041,25 +5041,25 @@
         <v>45.65223436120566</v>
       </c>
       <c r="J11" t="n">
-        <v>60.98831864036175</v>
+        <v>322.1411311121125</v>
       </c>
       <c r="K11" t="n">
-        <v>116.9531703649687</v>
+        <v>843.595731851593</v>
       </c>
       <c r="L11" t="n">
-        <v>210.3686628877117</v>
+        <v>937.0112243743359</v>
       </c>
       <c r="M11" t="n">
-        <v>775.3150631076317</v>
+        <v>1061.53909338299</v>
       </c>
       <c r="N11" t="n">
-        <v>904.8568986729656</v>
+        <v>1191.080928948324</v>
       </c>
       <c r="O11" t="n">
-        <v>1469.803298892886</v>
+        <v>1304.735691087847</v>
       </c>
       <c r="P11" t="n">
-        <v>2034.749699112806</v>
+        <v>1869.682091307767</v>
       </c>
       <c r="Q11" t="n">
         <v>2222.27259243225</v>
@@ -5068,25 +5068,25 @@
         <v>2282.611718060283</v>
       </c>
       <c r="S11" t="n">
-        <v>2282.611718060283</v>
+        <v>2152.213960519729</v>
       </c>
       <c r="T11" t="n">
-        <v>2282.611718060283</v>
+        <v>2152.213960519729</v>
       </c>
       <c r="U11" t="n">
-        <v>2282.611718060283</v>
+        <v>1896.588022563828</v>
       </c>
       <c r="V11" t="n">
-        <v>2282.611718060283</v>
+        <v>1896.588022563828</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.611718060283</v>
+        <v>1525.588987532115</v>
       </c>
       <c r="X11" t="n">
-        <v>2282.611718060283</v>
+        <v>1136.136382465172</v>
       </c>
       <c r="Y11" t="n">
-        <v>2282.611718060283</v>
+        <v>1136.136382465172</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>806.7841179455941</v>
+        <v>806.7841179455943</v>
       </c>
       <c r="C12" t="n">
-        <v>656.1298875056863</v>
+        <v>656.1298875056865</v>
       </c>
       <c r="D12" t="n">
-        <v>526.0409201271666</v>
+        <v>526.0409201271668</v>
       </c>
       <c r="E12" t="n">
-        <v>389.5944292380543</v>
+        <v>389.5944292380545</v>
       </c>
       <c r="F12" t="n">
-        <v>265.1626231211861</v>
+        <v>265.1626231211864</v>
       </c>
       <c r="G12" t="n">
-        <v>145.9507988407827</v>
+        <v>145.9507988407829</v>
       </c>
       <c r="H12" t="n">
-        <v>65.84321582869151</v>
+        <v>65.84321582869174</v>
       </c>
       <c r="I12" t="n">
         <v>45.65223436120566</v>
       </c>
       <c r="J12" t="n">
-        <v>237.2896955528579</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="K12" t="n">
-        <v>691.2362650545422</v>
+        <v>499.5988038628898</v>
       </c>
       <c r="L12" t="n">
-        <v>1025.787904680401</v>
+        <v>858.3973679721273</v>
       </c>
       <c r="M12" t="n">
-        <v>1144.911145203334</v>
+        <v>977.520608495061</v>
       </c>
       <c r="N12" t="n">
-        <v>1276.552842635881</v>
+        <v>1109.162305927608</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.499242855801</v>
+        <v>1674.108706147528</v>
       </c>
       <c r="P12" t="n">
-        <v>1913.993906776814</v>
+        <v>2238.437269956059</v>
       </c>
       <c r="Q12" t="n">
         <v>2254.450555269586</v>
@@ -5147,25 +5147,25 @@
         <v>2282.611718060283</v>
       </c>
       <c r="S12" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T12" t="n">
         <v>1989.866348722269</v>
       </c>
       <c r="U12" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V12" t="n">
         <v>1557.31899282775</v>
       </c>
       <c r="W12" t="n">
-        <v>1327.201746961036</v>
+        <v>1327.201746961037</v>
       </c>
       <c r="X12" t="n">
         <v>1137.894669311048</v>
       </c>
       <c r="Y12" t="n">
-        <v>958.5804523865554</v>
+        <v>958.5804523865556</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.65223436120566</v>
+        <v>416.3795966368344</v>
       </c>
       <c r="C13" t="n">
-        <v>45.65223436120566</v>
+        <v>246.1744787028236</v>
       </c>
       <c r="D13" t="n">
-        <v>45.65223436120566</v>
+        <v>246.1744787028236</v>
       </c>
       <c r="E13" t="n">
-        <v>45.65223436120566</v>
+        <v>246.1744787028236</v>
       </c>
       <c r="F13" t="n">
-        <v>45.65223436120566</v>
+        <v>213.1953588734544</v>
       </c>
       <c r="G13" t="n">
         <v>45.65223436120566</v>
@@ -5223,28 +5223,28 @@
         <v>1608.089745976508</v>
       </c>
       <c r="R13" t="n">
-        <v>1516.154727105088</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="S13" t="n">
-        <v>1325.728203627476</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="T13" t="n">
-        <v>1093.046759182107</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="U13" t="n">
-        <v>807.646745390643</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="V13" t="n">
-        <v>541.6674002114672</v>
+        <v>1342.110400797332</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3369981426449</v>
+        <v>1058.779998728509</v>
       </c>
       <c r="X13" t="n">
-        <v>45.65223436120566</v>
+        <v>824.6996765114924</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.65223436120566</v>
+        <v>601.5876153281357</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1620.933916175653</v>
+        <v>1250.571326498016</v>
       </c>
       <c r="C14" t="n">
-        <v>1227.758414678583</v>
+        <v>1250.571326498016</v>
       </c>
       <c r="D14" t="n">
-        <v>842.317285895251</v>
+        <v>865.1301977146834</v>
       </c>
       <c r="E14" t="n">
-        <v>842.317285895251</v>
+        <v>462.5466728312279</v>
       </c>
       <c r="F14" t="n">
-        <v>842.317285895251</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="G14" t="n">
-        <v>430.7394255019989</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="H14" t="n">
-        <v>122.8876822033342</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="I14" t="n">
         <v>45.65223436120566</v>
       </c>
       <c r="J14" t="n">
-        <v>258.5464889271249</v>
+        <v>60.98831864036175</v>
       </c>
       <c r="K14" t="n">
-        <v>314.5113406517319</v>
+        <v>617.5633455398756</v>
       </c>
       <c r="L14" t="n">
-        <v>879.4577408716519</v>
+        <v>710.9788380626185</v>
       </c>
       <c r="M14" t="n">
-        <v>1444.404141091572</v>
+        <v>835.5067070712722</v>
       </c>
       <c r="N14" t="n">
-        <v>2009.350541311492</v>
+        <v>965.0485426366062</v>
       </c>
       <c r="O14" t="n">
-        <v>2123.005303451016</v>
+        <v>1304.735691087847</v>
       </c>
       <c r="P14" t="n">
-        <v>2197.581362882924</v>
+        <v>1869.682091307767</v>
       </c>
       <c r="Q14" t="n">
         <v>2222.27259243225</v>
@@ -5311,19 +5311,19 @@
         <v>2282.611718060283</v>
       </c>
       <c r="U14" t="n">
-        <v>2282.611718060283</v>
+        <v>2026.985780104381</v>
       </c>
       <c r="V14" t="n">
-        <v>2282.611718060283</v>
+        <v>1684.8789708079</v>
       </c>
       <c r="W14" t="n">
-        <v>2282.611718060283</v>
+        <v>1684.8789708079</v>
       </c>
       <c r="X14" t="n">
-        <v>2282.611718060283</v>
+        <v>1295.426365740956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1886.121008980884</v>
+        <v>1295.426365740956</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>389.5944292380545</v>
       </c>
       <c r="F15" t="n">
-        <v>265.1626231211861</v>
+        <v>265.1626231211864</v>
       </c>
       <c r="G15" t="n">
-        <v>145.9507988407827</v>
+        <v>145.9507988407829</v>
       </c>
       <c r="H15" t="n">
-        <v>65.8432158286915</v>
+        <v>65.84321582869174</v>
       </c>
       <c r="I15" t="n">
         <v>45.65223436120566</v>
       </c>
       <c r="J15" t="n">
-        <v>45.65223436120566</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K15" t="n">
-        <v>91.15869182066339</v>
+        <v>691.2362650545422</v>
       </c>
       <c r="L15" t="n">
-        <v>182.4573914714092</v>
+        <v>782.534964705288</v>
       </c>
       <c r="M15" t="n">
-        <v>747.4037916913293</v>
+        <v>1112.040077557243</v>
       </c>
       <c r="N15" t="n">
-        <v>1271.842937780487</v>
+        <v>1243.68177498979</v>
       </c>
       <c r="O15" t="n">
-        <v>1377.82650575898</v>
+        <v>1349.665342968282</v>
       </c>
       <c r="P15" t="n">
-        <v>1942.155069567511</v>
+        <v>1913.993906776814</v>
       </c>
       <c r="Q15" t="n">
-        <v>2282.611718060283</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R15" t="n">
         <v>2282.611718060283</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.65223436120566</v>
+        <v>371.4904653927017</v>
       </c>
       <c r="C16" t="n">
-        <v>45.65223436120566</v>
+        <v>201.2853474586909</v>
       </c>
       <c r="D16" t="n">
         <v>45.65223436120566</v>
@@ -5460,28 +5460,28 @@
         <v>1608.089745976508</v>
       </c>
       <c r="R16" t="n">
-        <v>1516.154727105088</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="S16" t="n">
-        <v>1325.728203627476</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="T16" t="n">
-        <v>1093.046759182107</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="U16" t="n">
-        <v>807.646745390643</v>
+        <v>1090.008287739675</v>
       </c>
       <c r="V16" t="n">
-        <v>541.6674002114672</v>
+        <v>824.0289425604991</v>
       </c>
       <c r="W16" t="n">
-        <v>258.3369981426449</v>
+        <v>540.6985404916768</v>
       </c>
       <c r="X16" t="n">
-        <v>45.65223436120566</v>
+        <v>540.6985404916768</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.65223436120566</v>
+        <v>540.6985404916768</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1882.116972348887</v>
+        <v>1626.250494252423</v>
       </c>
       <c r="C17" t="n">
-        <v>1488.941470851817</v>
+        <v>1233.074992755353</v>
       </c>
       <c r="D17" t="n">
-        <v>1103.500342068485</v>
+        <v>847.6338639720211</v>
       </c>
       <c r="E17" t="n">
-        <v>700.9168171850295</v>
+        <v>847.6338639720211</v>
       </c>
       <c r="F17" t="n">
-        <v>284.0223787150072</v>
+        <v>430.7394255019989</v>
       </c>
       <c r="G17" t="n">
-        <v>45.65223436120567</v>
+        <v>430.7394255019989</v>
       </c>
       <c r="H17" t="n">
-        <v>45.65223436120567</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="I17" t="n">
-        <v>45.65223436120567</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="J17" t="n">
         <v>322.1411311121125</v>
       </c>
       <c r="K17" t="n">
-        <v>392.3040937711967</v>
+        <v>878.7161580116265</v>
       </c>
       <c r="L17" t="n">
-        <v>485.7195862939396</v>
+        <v>972.1316505343693</v>
       </c>
       <c r="M17" t="n">
-        <v>610.2474553025934</v>
+        <v>1096.659519543023</v>
       </c>
       <c r="N17" t="n">
-        <v>739.7892908679273</v>
+        <v>1226.201355108357</v>
       </c>
       <c r="O17" t="n">
-        <v>1304.735691087847</v>
+        <v>1339.856117247881</v>
       </c>
       <c r="P17" t="n">
-        <v>1869.682091307768</v>
+        <v>1904.8025174678</v>
       </c>
       <c r="Q17" t="n">
-        <v>2222.272592432251</v>
+        <v>2257.393018592284</v>
       </c>
       <c r="R17" t="n">
-        <v>2282.611718060284</v>
+        <v>2282.611718060283</v>
       </c>
       <c r="S17" t="n">
-        <v>2282.611718060284</v>
+        <v>2282.611718060283</v>
       </c>
       <c r="T17" t="n">
-        <v>2282.611718060284</v>
+        <v>2066.048994002005</v>
       </c>
       <c r="U17" t="n">
-        <v>2282.611718060284</v>
+        <v>2066.048994002005</v>
       </c>
       <c r="V17" t="n">
-        <v>2282.611718060284</v>
+        <v>1723.942184705524</v>
       </c>
       <c r="W17" t="n">
-        <v>2282.611718060284</v>
+        <v>1723.942184705524</v>
       </c>
       <c r="X17" t="n">
-        <v>2282.611718060284</v>
+        <v>1723.942184705524</v>
       </c>
       <c r="Y17" t="n">
-        <v>2282.611718060284</v>
+        <v>1723.942184705524</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>806.7841179455939</v>
+        <v>806.7841179455943</v>
       </c>
       <c r="C18" t="n">
-        <v>656.1298875056862</v>
+        <v>656.1298875056865</v>
       </c>
       <c r="D18" t="n">
-        <v>526.0409201271665</v>
+        <v>526.0409201271668</v>
       </c>
       <c r="E18" t="n">
-        <v>389.5944292380542</v>
+        <v>389.5944292380545</v>
       </c>
       <c r="F18" t="n">
-        <v>265.162623121186</v>
+        <v>265.1626231211864</v>
       </c>
       <c r="G18" t="n">
-        <v>145.9507988407827</v>
+        <v>145.9507988407829</v>
       </c>
       <c r="H18" t="n">
-        <v>65.84321582869151</v>
+        <v>65.8432158286915</v>
       </c>
       <c r="I18" t="n">
-        <v>45.65223436120567</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="J18" t="n">
-        <v>45.65223436120567</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K18" t="n">
-        <v>499.5988038628898</v>
+        <v>691.2362650545422</v>
       </c>
       <c r="L18" t="n">
-        <v>1064.54520408281</v>
+        <v>992.9168370343095</v>
       </c>
       <c r="M18" t="n">
-        <v>1183.668444605744</v>
+        <v>1112.040077557243</v>
       </c>
       <c r="N18" t="n">
-        <v>1568.125138169036</v>
+        <v>1243.68177498979</v>
       </c>
       <c r="O18" t="n">
-        <v>1674.108706147528</v>
+        <v>1349.665342968282</v>
       </c>
       <c r="P18" t="n">
-        <v>2238.43726995606</v>
+        <v>1913.993906776814</v>
       </c>
       <c r="Q18" t="n">
         <v>2254.450555269586</v>
       </c>
       <c r="R18" t="n">
-        <v>2282.611718060284</v>
+        <v>2282.611718060283</v>
       </c>
       <c r="S18" t="n">
         <v>2163.432151039739</v>
@@ -5627,19 +5627,19 @@
         <v>1989.866348722269</v>
       </c>
       <c r="U18" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V18" t="n">
         <v>1557.31899282775</v>
       </c>
       <c r="W18" t="n">
-        <v>1327.201746961036</v>
+        <v>1327.201746961037</v>
       </c>
       <c r="X18" t="n">
         <v>1137.894669311048</v>
       </c>
       <c r="Y18" t="n">
-        <v>958.5804523865553</v>
+        <v>958.5804523865556</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>773.3799849370453</v>
+        <v>215.8573522952165</v>
       </c>
       <c r="C19" t="n">
-        <v>773.3799849370453</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="D19" t="n">
-        <v>773.3799849370453</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="E19" t="n">
-        <v>617.8211727962478</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="F19" t="n">
-        <v>460.4952380092207</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="G19" t="n">
-        <v>292.9521134969721</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="H19" t="n">
-        <v>143.7943710199484</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="I19" t="n">
-        <v>45.65223436120567</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="J19" t="n">
-        <v>65.14097163269824</v>
+        <v>65.14097163269822</v>
       </c>
       <c r="K19" t="n">
         <v>227.9294000031423</v>
@@ -5703,22 +5703,22 @@
         <v>1608.089745976508</v>
       </c>
       <c r="T19" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.689732185043</v>
+        <v>1090.008287739675</v>
       </c>
       <c r="V19" t="n">
-        <v>1056.710387005868</v>
+        <v>907.5078342386967</v>
       </c>
       <c r="W19" t="n">
-        <v>773.3799849370453</v>
+        <v>624.1774321698744</v>
       </c>
       <c r="X19" t="n">
-        <v>773.3799849370453</v>
+        <v>624.1774321698744</v>
       </c>
       <c r="Y19" t="n">
-        <v>773.3799849370453</v>
+        <v>401.0653709865177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.8876822033342</v>
+        <v>1661.795249248729</v>
       </c>
       <c r="C20" t="n">
-        <v>122.8876822033342</v>
+        <v>1661.795249248729</v>
       </c>
       <c r="D20" t="n">
-        <v>122.8876822033342</v>
+        <v>1661.795249248729</v>
       </c>
       <c r="E20" t="n">
-        <v>122.8876822033342</v>
+        <v>1259.211724365273</v>
       </c>
       <c r="F20" t="n">
-        <v>122.8876822033342</v>
+        <v>842.317285895251</v>
       </c>
       <c r="G20" t="n">
-        <v>122.8876822033342</v>
+        <v>430.7394255019989</v>
       </c>
       <c r="H20" t="n">
         <v>122.8876822033342</v>
@@ -5752,28 +5752,28 @@
         <v>45.65223436120566</v>
       </c>
       <c r="J20" t="n">
-        <v>322.1411311121125</v>
+        <v>60.98831864036175</v>
       </c>
       <c r="K20" t="n">
-        <v>878.7161580116265</v>
+        <v>617.5633455398756</v>
       </c>
       <c r="L20" t="n">
-        <v>1427.381565162348</v>
+        <v>710.9788380626185</v>
       </c>
       <c r="M20" t="n">
-        <v>1551.909434171002</v>
+        <v>1053.451628639208</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.451269736335</v>
+        <v>1618.398028859128</v>
       </c>
       <c r="O20" t="n">
-        <v>1795.106031875859</v>
+        <v>2183.344429079048</v>
       </c>
       <c r="P20" t="n">
-        <v>1869.682091307767</v>
+        <v>2257.920488510957</v>
       </c>
       <c r="Q20" t="n">
-        <v>2222.27259243225</v>
+        <v>2282.611718060283</v>
       </c>
       <c r="R20" t="n">
         <v>2282.611718060283</v>
@@ -5785,19 +5785,19 @@
         <v>1935.651236461451</v>
       </c>
       <c r="U20" t="n">
-        <v>1680.025298505549</v>
+        <v>1935.651236461451</v>
       </c>
       <c r="V20" t="n">
-        <v>1337.918489209067</v>
+        <v>1935.651236461451</v>
       </c>
       <c r="W20" t="n">
-        <v>966.9194541773545</v>
+        <v>1935.651236461451</v>
       </c>
       <c r="X20" t="n">
-        <v>577.4668491104113</v>
+        <v>1935.651236461451</v>
       </c>
       <c r="Y20" t="n">
-        <v>523.3824279147311</v>
+        <v>1935.651236461451</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>806.7841179455941</v>
       </c>
       <c r="C21" t="n">
-        <v>656.1298875056863</v>
+        <v>656.1298875056862</v>
       </c>
       <c r="D21" t="n">
         <v>526.0409201271666</v>
@@ -5825,46 +5825,46 @@
         <v>145.9507988407827</v>
       </c>
       <c r="H21" t="n">
-        <v>65.8432158286915</v>
+        <v>65.84321582869148</v>
       </c>
       <c r="I21" t="n">
         <v>45.65223436120566</v>
       </c>
       <c r="J21" t="n">
-        <v>237.2896955528579</v>
+        <v>45.65223436120566</v>
       </c>
       <c r="K21" t="n">
-        <v>691.2362650545422</v>
+        <v>427.9704368143895</v>
       </c>
       <c r="L21" t="n">
-        <v>1021.077999825006</v>
+        <v>992.9168370343095</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.20124034794</v>
+        <v>1112.040077557243</v>
       </c>
       <c r="N21" t="n">
-        <v>1271.842937780487</v>
+        <v>1243.68177498979</v>
       </c>
       <c r="O21" t="n">
-        <v>1377.826505758979</v>
+        <v>1349.665342968282</v>
       </c>
       <c r="P21" t="n">
-        <v>1942.155069567511</v>
+        <v>1913.993906776814</v>
       </c>
       <c r="Q21" t="n">
-        <v>2282.611718060283</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R21" t="n">
         <v>2282.611718060283</v>
       </c>
       <c r="S21" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T21" t="n">
-        <v>1989.866348722268</v>
+        <v>1989.866348722269</v>
       </c>
       <c r="U21" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V21" t="n">
         <v>1557.31899282775</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.65223436120566</v>
+        <v>215.8573522952165</v>
       </c>
       <c r="C22" t="n">
         <v>45.65223436120566</v>
@@ -5934,28 +5934,28 @@
         <v>1608.089745976508</v>
       </c>
       <c r="R22" t="n">
-        <v>1516.154727105088</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="S22" t="n">
-        <v>1325.728203627476</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="T22" t="n">
-        <v>1093.046759182107</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="U22" t="n">
-        <v>807.646745390643</v>
+        <v>1322.689732185043</v>
       </c>
       <c r="V22" t="n">
-        <v>541.6674002114672</v>
+        <v>1056.710387005868</v>
       </c>
       <c r="W22" t="n">
-        <v>258.3369981426449</v>
+        <v>858.2577543868913</v>
       </c>
       <c r="X22" t="n">
-        <v>45.65223436120566</v>
+        <v>624.1774321698744</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.65223436120566</v>
+        <v>401.0653709865177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1485.626263269487</v>
+        <v>963.490544606868</v>
       </c>
       <c r="C23" t="n">
-        <v>1092.450761772418</v>
+        <v>570.3150431097986</v>
       </c>
       <c r="D23" t="n">
-        <v>707.0096329890853</v>
+        <v>570.3150431097986</v>
       </c>
       <c r="E23" t="n">
-        <v>707.0096329890853</v>
+        <v>353.5039776598704</v>
       </c>
       <c r="F23" t="n">
-        <v>290.115194519063</v>
+        <v>353.5039776598704</v>
       </c>
       <c r="G23" t="n">
-        <v>290.115194519063</v>
+        <v>353.5039776598704</v>
       </c>
       <c r="H23" t="n">
         <v>45.65223436120566</v>
@@ -5992,19 +5992,19 @@
         <v>322.1411311121125</v>
       </c>
       <c r="K23" t="n">
-        <v>403.1772006403266</v>
+        <v>862.4351649424281</v>
       </c>
       <c r="L23" t="n">
-        <v>496.5926931630695</v>
+        <v>1427.381565162348</v>
       </c>
       <c r="M23" t="n">
-        <v>1061.539093382989</v>
+        <v>1551.909434171002</v>
       </c>
       <c r="N23" t="n">
-        <v>1191.080928948323</v>
+        <v>1681.451269736336</v>
       </c>
       <c r="O23" t="n">
-        <v>1304.735691087847</v>
+        <v>1795.106031875859</v>
       </c>
       <c r="P23" t="n">
         <v>1869.682091307767</v>
@@ -6019,22 +6019,22 @@
         <v>2282.611718060283</v>
       </c>
       <c r="T23" t="n">
-        <v>2282.611718060283</v>
+        <v>2066.048994002005</v>
       </c>
       <c r="U23" t="n">
-        <v>2282.611718060283</v>
+        <v>2066.048994002005</v>
       </c>
       <c r="V23" t="n">
-        <v>2282.611718060283</v>
+        <v>1723.942184705524</v>
       </c>
       <c r="W23" t="n">
-        <v>2282.611718060283</v>
+        <v>1352.943149673811</v>
       </c>
       <c r="X23" t="n">
-        <v>2282.611718060283</v>
+        <v>963.490544606868</v>
       </c>
       <c r="Y23" t="n">
-        <v>1886.121008980884</v>
+        <v>963.490544606868</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>45.65223436120566</v>
       </c>
       <c r="J24" t="n">
-        <v>45.65223436120566</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K24" t="n">
-        <v>499.5988038628898</v>
+        <v>691.2362650545422</v>
       </c>
       <c r="L24" t="n">
-        <v>1064.54520408281</v>
+        <v>1025.787904680401</v>
       </c>
       <c r="M24" t="n">
-        <v>1183.668444605743</v>
+        <v>1144.911145203334</v>
       </c>
       <c r="N24" t="n">
-        <v>1315.31014203829</v>
+        <v>1276.552842635881</v>
       </c>
       <c r="O24" t="n">
-        <v>1421.293710016783</v>
+        <v>1841.499242855801</v>
       </c>
       <c r="P24" t="n">
-        <v>1985.622273825315</v>
+        <v>1913.993906776814</v>
       </c>
       <c r="Q24" t="n">
-        <v>2282.611718060283</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R24" t="n">
         <v>2282.611718060283</v>
@@ -6098,7 +6098,7 @@
         <v>2163.432151039738</v>
       </c>
       <c r="T24" t="n">
-        <v>1989.866348722268</v>
+        <v>1989.866348722269</v>
       </c>
       <c r="U24" t="n">
         <v>1779.858994456682</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1112.790919068034</v>
+        <v>799.9061721402095</v>
       </c>
       <c r="C25" t="n">
-        <v>942.5858011340231</v>
+        <v>629.7010542061987</v>
       </c>
       <c r="D25" t="n">
-        <v>786.9526880365379</v>
+        <v>474.0679411087134</v>
       </c>
       <c r="E25" t="n">
-        <v>631.3938758957404</v>
+        <v>474.0679411087134</v>
       </c>
       <c r="F25" t="n">
         <v>474.0679411087134</v>
@@ -6180,19 +6180,19 @@
         <v>1325.728203627476</v>
       </c>
       <c r="U25" t="n">
-        <v>1325.728203627476</v>
+        <v>1040.328189836011</v>
       </c>
       <c r="V25" t="n">
-        <v>1325.728203627476</v>
+        <v>1040.328189836011</v>
       </c>
       <c r="W25" t="n">
-        <v>1325.728203627476</v>
+        <v>1040.328189836011</v>
       </c>
       <c r="X25" t="n">
-        <v>1325.728203627476</v>
+        <v>1040.328189836011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.998937759335</v>
+        <v>817.2161286526548</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1643.746827995085</v>
+        <v>519.0789126954971</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.571326498016</v>
+        <v>519.0789126954971</v>
       </c>
       <c r="D26" t="n">
-        <v>865.1301977146834</v>
+        <v>519.0789126954971</v>
       </c>
       <c r="E26" t="n">
-        <v>462.5466728312279</v>
+        <v>430.7394255019989</v>
       </c>
       <c r="F26" t="n">
-        <v>45.65223436120566</v>
+        <v>430.7394255019989</v>
       </c>
       <c r="G26" t="n">
-        <v>45.65223436120566</v>
+        <v>430.7394255019989</v>
       </c>
       <c r="H26" t="n">
-        <v>45.65223436120566</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="I26" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J26" t="n">
         <v>322.1411311121125</v>
@@ -6244,34 +6244,34 @@
         <v>1339.856117247881</v>
       </c>
       <c r="P26" t="n">
-        <v>1869.682091307767</v>
+        <v>1869.682091307768</v>
       </c>
       <c r="Q26" t="n">
-        <v>2222.27259243225</v>
+        <v>2222.272592432251</v>
       </c>
       <c r="R26" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S26" t="n">
-        <v>2282.611718060283</v>
+        <v>2152.21396051973</v>
       </c>
       <c r="T26" t="n">
-        <v>2282.611718060283</v>
+        <v>1935.651236461452</v>
       </c>
       <c r="U26" t="n">
-        <v>2282.611718060283</v>
+        <v>1680.02529850555</v>
       </c>
       <c r="V26" t="n">
-        <v>2282.611718060283</v>
+        <v>1680.02529850555</v>
       </c>
       <c r="W26" t="n">
-        <v>2282.611718060283</v>
+        <v>1309.026263473837</v>
       </c>
       <c r="X26" t="n">
-        <v>2282.611718060283</v>
+        <v>919.573658406894</v>
       </c>
       <c r="Y26" t="n">
-        <v>2044.241573706482</v>
+        <v>919.573658406894</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>806.7841179455937</v>
+        <v>806.7841179455941</v>
       </c>
       <c r="C27" t="n">
-        <v>656.1298875056859</v>
+        <v>656.1298875056862</v>
       </c>
       <c r="D27" t="n">
-        <v>526.0409201271663</v>
+        <v>526.0409201271666</v>
       </c>
       <c r="E27" t="n">
-        <v>389.594429238054</v>
+        <v>389.5944292380543</v>
       </c>
       <c r="F27" t="n">
-        <v>265.1626231211858</v>
+        <v>265.162623121186</v>
       </c>
       <c r="G27" t="n">
-        <v>145.9507988407826</v>
+        <v>145.9507988407827</v>
       </c>
       <c r="H27" t="n">
-        <v>65.84321582869143</v>
+        <v>65.84321582869151</v>
       </c>
       <c r="I27" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J27" t="n">
-        <v>45.65223436120566</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K27" t="n">
-        <v>91.15869182066339</v>
+        <v>691.2362650545422</v>
       </c>
       <c r="L27" t="n">
-        <v>182.4573914714092</v>
+        <v>1256.182665274462</v>
       </c>
       <c r="M27" t="n">
-        <v>747.4037916913293</v>
+        <v>1603.873977444762</v>
       </c>
       <c r="N27" t="n">
-        <v>1312.350191911249</v>
+        <v>1735.515674877309</v>
       </c>
       <c r="O27" t="n">
-        <v>1877.296592131169</v>
+        <v>1841.499242855802</v>
       </c>
       <c r="P27" t="n">
-        <v>2266.598432746757</v>
+        <v>1913.993906776815</v>
       </c>
       <c r="Q27" t="n">
-        <v>2282.611718060283</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R27" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S27" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T27" t="n">
         <v>1989.866348722269</v>
       </c>
       <c r="U27" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V27" t="n">
-        <v>1557.318992827749</v>
+        <v>1557.31899282775</v>
       </c>
       <c r="W27" t="n">
         <v>1327.201746961036</v>
@@ -6350,7 +6350,7 @@
         <v>1137.894669311048</v>
       </c>
       <c r="Y27" t="n">
-        <v>958.5804523865551</v>
+        <v>958.5804523865554</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>965.6893438848329</v>
+        <v>528.8164001797288</v>
       </c>
       <c r="C28" t="n">
-        <v>795.4842259508221</v>
+        <v>358.611282245718</v>
       </c>
       <c r="D28" t="n">
-        <v>639.8511128533369</v>
+        <v>202.9781691482327</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2923007125394</v>
+        <v>202.9781691482327</v>
       </c>
       <c r="F28" t="n">
-        <v>326.9663659255123</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="G28" t="n">
-        <v>159.4232414132636</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H28" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I28" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J28" t="n">
-        <v>65.14097163269822</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K28" t="n">
         <v>227.9294000031423</v>
@@ -6414,22 +6414,22 @@
         <v>1608.089745976508</v>
       </c>
       <c r="T28" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="U28" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="V28" t="n">
-        <v>1608.089745976508</v>
+        <v>1109.428956351963</v>
       </c>
       <c r="W28" t="n">
-        <v>1608.089745976508</v>
+        <v>1109.428956351963</v>
       </c>
       <c r="X28" t="n">
-        <v>1374.009423759491</v>
+        <v>875.3486341349463</v>
       </c>
       <c r="Y28" t="n">
-        <v>1150.897362576134</v>
+        <v>652.2365729515897</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>438.8277358582751</v>
+        <v>1167.665362936578</v>
       </c>
       <c r="C29" t="n">
-        <v>45.65223436120566</v>
+        <v>1167.665362936578</v>
       </c>
       <c r="D29" t="n">
-        <v>45.65223436120566</v>
+        <v>1167.665362936578</v>
       </c>
       <c r="E29" t="n">
-        <v>45.65223436120566</v>
+        <v>765.0818380531225</v>
       </c>
       <c r="F29" t="n">
-        <v>45.65223436120566</v>
+        <v>765.0818380531225</v>
       </c>
       <c r="G29" t="n">
-        <v>45.65223436120566</v>
+        <v>353.5039776598704</v>
       </c>
       <c r="H29" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I29" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J29" t="n">
         <v>322.1411311121125</v>
       </c>
       <c r="K29" t="n">
-        <v>843.595731851593</v>
+        <v>878.7161580116265</v>
       </c>
       <c r="L29" t="n">
-        <v>937.0112243743359</v>
+        <v>972.1316505343693</v>
       </c>
       <c r="M29" t="n">
-        <v>1061.53909338299</v>
+        <v>1096.659519543023</v>
       </c>
       <c r="N29" t="n">
-        <v>1191.080928948324</v>
+        <v>1226.201355108357</v>
       </c>
       <c r="O29" t="n">
-        <v>1304.735691087847</v>
+        <v>1339.856117247881</v>
       </c>
       <c r="P29" t="n">
-        <v>1869.682091307767</v>
+        <v>1904.802517467801</v>
       </c>
       <c r="Q29" t="n">
-        <v>2222.27259243225</v>
+        <v>2257.393018592284</v>
       </c>
       <c r="R29" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S29" t="n">
-        <v>2212.827554806005</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="T29" t="n">
-        <v>1996.264830747727</v>
+        <v>2066.048994002006</v>
       </c>
       <c r="U29" t="n">
-        <v>1996.264830747727</v>
+        <v>2066.048994002006</v>
       </c>
       <c r="V29" t="n">
-        <v>1996.264830747727</v>
+        <v>2066.048994002006</v>
       </c>
       <c r="W29" t="n">
-        <v>1625.265795716014</v>
+        <v>1695.049958970293</v>
       </c>
       <c r="X29" t="n">
-        <v>1235.813190649071</v>
+        <v>1305.59735390335</v>
       </c>
       <c r="Y29" t="n">
-        <v>839.3224815696719</v>
+        <v>1167.665362936578</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>806.7841179455941</v>
       </c>
       <c r="C30" t="n">
-        <v>656.1298875056863</v>
+        <v>656.1298875056862</v>
       </c>
       <c r="D30" t="n">
         <v>526.0409201271666</v>
@@ -6530,52 +6530,52 @@
         <v>389.5944292380543</v>
       </c>
       <c r="F30" t="n">
-        <v>265.1626231211861</v>
+        <v>265.162623121186</v>
       </c>
       <c r="G30" t="n">
         <v>145.9507988407827</v>
       </c>
       <c r="H30" t="n">
-        <v>65.8432158286915</v>
+        <v>65.84321582869151</v>
       </c>
       <c r="I30" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J30" t="n">
-        <v>45.65223436120566</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K30" t="n">
-        <v>351.9801648523525</v>
+        <v>691.2362650545422</v>
       </c>
       <c r="L30" t="n">
-        <v>916.9265650722725</v>
+        <v>782.534964705288</v>
       </c>
       <c r="M30" t="n">
-        <v>1036.049805595206</v>
+        <v>901.6582052282217</v>
       </c>
       <c r="N30" t="n">
-        <v>1600.996205815126</v>
+        <v>1033.299902660768</v>
       </c>
       <c r="O30" t="n">
-        <v>2165.942606035047</v>
+        <v>1349.665342968283</v>
       </c>
       <c r="P30" t="n">
-        <v>2238.437269956059</v>
+        <v>1913.993906776815</v>
       </c>
       <c r="Q30" t="n">
         <v>2254.450555269586</v>
       </c>
       <c r="R30" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S30" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T30" t="n">
         <v>1989.866348722269</v>
       </c>
       <c r="U30" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V30" t="n">
         <v>1557.31899282775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>720.1742064449815</v>
+        <v>637.4220460975495</v>
       </c>
       <c r="C31" t="n">
-        <v>720.1742064449815</v>
+        <v>467.2169281635387</v>
       </c>
       <c r="D31" t="n">
-        <v>720.1742064449815</v>
+        <v>311.5838150660534</v>
       </c>
       <c r="E31" t="n">
-        <v>720.1742064449815</v>
+        <v>213.1953588734544</v>
       </c>
       <c r="F31" t="n">
-        <v>720.1742064449815</v>
+        <v>213.1953588734544</v>
       </c>
       <c r="G31" t="n">
-        <v>720.1742064449815</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H31" t="n">
-        <v>720.1742064449815</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I31" t="n">
-        <v>720.1742064449815</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J31" t="n">
-        <v>739.662943716474</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K31" t="n">
-        <v>902.4513720869181</v>
+        <v>227.9294000031423</v>
       </c>
       <c r="L31" t="n">
-        <v>1170.171476378422</v>
+        <v>495.6495042946459</v>
       </c>
       <c r="M31" t="n">
-        <v>1465.686783709865</v>
+        <v>791.1648116260899</v>
       </c>
       <c r="N31" t="n">
-        <v>1755.503050585835</v>
+        <v>1080.981078502059</v>
       </c>
       <c r="O31" t="n">
-        <v>2016.694771080304</v>
+        <v>1342.172798996529</v>
       </c>
       <c r="P31" t="n">
-        <v>2220.843539682683</v>
+        <v>1546.321567598907</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.611718060283</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="R31" t="n">
-        <v>2190.676699188864</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="S31" t="n">
-        <v>2000.250175711251</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="T31" t="n">
-        <v>1767.568731265883</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="U31" t="n">
-        <v>1482.168717474419</v>
+        <v>1322.689732185043</v>
       </c>
       <c r="V31" t="n">
-        <v>1216.189372295243</v>
+        <v>1056.710387005868</v>
       </c>
       <c r="W31" t="n">
-        <v>932.8589702264203</v>
+        <v>1056.710387005868</v>
       </c>
       <c r="X31" t="n">
-        <v>720.1742064449815</v>
+        <v>822.6300647888507</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.1742064449815</v>
+        <v>822.6300647888507</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1353.943505950064</v>
+        <v>890.0779477272097</v>
       </c>
       <c r="C32" t="n">
-        <v>1353.943505950064</v>
+        <v>890.0779477272097</v>
       </c>
       <c r="D32" t="n">
-        <v>1353.943505950064</v>
+        <v>890.0779477272097</v>
       </c>
       <c r="E32" t="n">
-        <v>951.3599810666085</v>
+        <v>890.0779477272097</v>
       </c>
       <c r="F32" t="n">
-        <v>534.4655425965863</v>
+        <v>473.1835092571874</v>
       </c>
       <c r="G32" t="n">
-        <v>122.8876822033342</v>
+        <v>61.60564886393536</v>
       </c>
       <c r="H32" t="n">
-        <v>122.8876822033342</v>
+        <v>61.60564886393536</v>
       </c>
       <c r="I32" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J32" t="n">
         <v>322.1411311121125</v>
       </c>
       <c r="K32" t="n">
-        <v>878.7161580116265</v>
+        <v>843.5957318515934</v>
       </c>
       <c r="L32" t="n">
-        <v>972.1316505343693</v>
+        <v>937.0112243743364</v>
       </c>
       <c r="M32" t="n">
-        <v>1096.659519543023</v>
+        <v>1061.53909338299</v>
       </c>
       <c r="N32" t="n">
-        <v>1226.201355108357</v>
+        <v>1191.080928948324</v>
       </c>
       <c r="O32" t="n">
-        <v>1339.856117247881</v>
+        <v>1304.735691087847</v>
       </c>
       <c r="P32" t="n">
-        <v>1869.682091307767</v>
+        <v>1869.682091307768</v>
       </c>
       <c r="Q32" t="n">
-        <v>2222.27259243225</v>
+        <v>2222.272592432251</v>
       </c>
       <c r="R32" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S32" t="n">
-        <v>2152.213960519729</v>
+        <v>2152.21396051973</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.651236461451</v>
+        <v>1935.651236461452</v>
       </c>
       <c r="U32" t="n">
-        <v>1680.025298505549</v>
+        <v>1680.02529850555</v>
       </c>
       <c r="V32" t="n">
-        <v>1353.943505950064</v>
+        <v>1680.02529850555</v>
       </c>
       <c r="W32" t="n">
-        <v>1353.943505950064</v>
+        <v>1680.02529850555</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.943505950064</v>
+        <v>1290.572693438607</v>
       </c>
       <c r="Y32" t="n">
-        <v>1353.943505950064</v>
+        <v>1290.572693438607</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>806.7841179455941</v>
       </c>
       <c r="C33" t="n">
-        <v>656.1298875056863</v>
+        <v>656.1298875056862</v>
       </c>
       <c r="D33" t="n">
         <v>526.0409201271666</v>
@@ -6767,52 +6767,52 @@
         <v>389.5944292380543</v>
       </c>
       <c r="F33" t="n">
-        <v>265.1626231211861</v>
+        <v>265.162623121186</v>
       </c>
       <c r="G33" t="n">
         <v>145.9507988407827</v>
       </c>
       <c r="H33" t="n">
-        <v>65.8432158286915</v>
+        <v>65.84321582869143</v>
       </c>
       <c r="I33" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J33" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="K33" t="n">
-        <v>91.15869182066338</v>
+        <v>499.5988038628898</v>
       </c>
       <c r="L33" t="n">
-        <v>182.4573914714092</v>
+        <v>1021.077999825007</v>
       </c>
       <c r="M33" t="n">
-        <v>706.8965375605667</v>
+        <v>1140.201240347941</v>
       </c>
       <c r="N33" t="n">
-        <v>1271.842937780487</v>
+        <v>1271.842937780488</v>
       </c>
       <c r="O33" t="n">
-        <v>1377.826505758979</v>
+        <v>1377.82650575898</v>
       </c>
       <c r="P33" t="n">
-        <v>1942.155069567511</v>
+        <v>1942.155069567512</v>
       </c>
       <c r="Q33" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="R33" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S33" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T33" t="n">
-        <v>1989.866348722268</v>
+        <v>1989.866348722269</v>
       </c>
       <c r="U33" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V33" t="n">
         <v>1557.31899282775</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.0492775334992</v>
+        <v>306.6182182746599</v>
       </c>
       <c r="C34" t="n">
-        <v>356.8441595994884</v>
+        <v>306.6182182746599</v>
       </c>
       <c r="D34" t="n">
-        <v>201.2110465020032</v>
+        <v>306.6182182746599</v>
       </c>
       <c r="E34" t="n">
-        <v>45.65223436120566</v>
+        <v>306.6182182746599</v>
       </c>
       <c r="F34" t="n">
-        <v>45.65223436120566</v>
+        <v>306.6182182746599</v>
       </c>
       <c r="G34" t="n">
-        <v>45.65223436120566</v>
+        <v>194.8099768382293</v>
       </c>
       <c r="H34" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I34" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J34" t="n">
-        <v>65.14097163269822</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K34" t="n">
         <v>227.9294000031423</v>
@@ -6888,22 +6888,22 @@
         <v>1608.089745976508</v>
       </c>
       <c r="T34" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="U34" t="n">
-        <v>1608.089745976508</v>
+        <v>1090.008287739675</v>
       </c>
       <c r="V34" t="n">
-        <v>1452.780081693996</v>
+        <v>824.0289425604991</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.449679625174</v>
+        <v>540.6985404916768</v>
       </c>
       <c r="X34" t="n">
-        <v>935.3693574081572</v>
+        <v>306.6182182746599</v>
       </c>
       <c r="Y34" t="n">
-        <v>712.2572962248005</v>
+        <v>306.6182182746599</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1305.597353903349</v>
+        <v>901.5043124837359</v>
       </c>
       <c r="C35" t="n">
-        <v>912.4218524062794</v>
+        <v>508.3288109866664</v>
       </c>
       <c r="D35" t="n">
-        <v>526.9807236229472</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="E35" t="n">
-        <v>124.3971987394917</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="F35" t="n">
-        <v>124.3971987394917</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="G35" t="n">
-        <v>45.65223436120566</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="H35" t="n">
-        <v>45.65223436120566</v>
+        <v>122.8876822033342</v>
       </c>
       <c r="I35" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J35" t="n">
         <v>322.1411311121125</v>
       </c>
       <c r="K35" t="n">
-        <v>378.1059828367195</v>
+        <v>878.7161580116265</v>
       </c>
       <c r="L35" t="n">
-        <v>943.0523830566394</v>
+        <v>972.1316505343693</v>
       </c>
       <c r="M35" t="n">
-        <v>1067.580252065293</v>
+        <v>1096.659519543023</v>
       </c>
       <c r="N35" t="n">
-        <v>1197.122087630627</v>
+        <v>1226.201355108357</v>
       </c>
       <c r="O35" t="n">
-        <v>1762.068487850547</v>
+        <v>1339.856117247881</v>
       </c>
       <c r="P35" t="n">
-        <v>1930.0212169358</v>
+        <v>1869.682091307768</v>
       </c>
       <c r="Q35" t="n">
-        <v>2282.611718060283</v>
+        <v>2222.272592432251</v>
       </c>
       <c r="R35" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S35" t="n">
-        <v>2282.611718060283</v>
+        <v>2152.21396051973</v>
       </c>
       <c r="T35" t="n">
-        <v>2066.048994002005</v>
+        <v>1935.651236461452</v>
       </c>
       <c r="U35" t="n">
-        <v>2066.048994002005</v>
+        <v>1935.651236461452</v>
       </c>
       <c r="V35" t="n">
-        <v>2066.048994002005</v>
+        <v>1593.54442716497</v>
       </c>
       <c r="W35" t="n">
-        <v>1695.049958970292</v>
+        <v>1593.54442716497</v>
       </c>
       <c r="X35" t="n">
-        <v>1305.597353903349</v>
+        <v>1301.999058195133</v>
       </c>
       <c r="Y35" t="n">
-        <v>1305.597353903349</v>
+        <v>1301.999058195133</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>806.7841179455941</v>
       </c>
       <c r="C36" t="n">
-        <v>656.1298875056863</v>
+        <v>656.1298875056862</v>
       </c>
       <c r="D36" t="n">
         <v>526.0409201271666</v>
@@ -7004,52 +7004,52 @@
         <v>389.5944292380543</v>
       </c>
       <c r="F36" t="n">
-        <v>265.1626231211861</v>
+        <v>265.162623121186</v>
       </c>
       <c r="G36" t="n">
         <v>145.9507988407827</v>
       </c>
       <c r="H36" t="n">
-        <v>65.8432158286915</v>
+        <v>65.84321582869143</v>
       </c>
       <c r="I36" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J36" t="n">
-        <v>45.65223436120566</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K36" t="n">
-        <v>91.15869182066338</v>
+        <v>455.7949776865776</v>
       </c>
       <c r="L36" t="n">
-        <v>605.6228744374682</v>
+        <v>547.0936773373235</v>
       </c>
       <c r="M36" t="n">
-        <v>1170.569274657388</v>
+        <v>1112.040077557244</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.515674877308</v>
+        <v>1243.68177498979</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.499242855801</v>
+        <v>1349.665342968283</v>
       </c>
       <c r="P36" t="n">
-        <v>1913.993906776814</v>
+        <v>1913.993906776815</v>
       </c>
       <c r="Q36" t="n">
-        <v>2254.450555269585</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R36" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S36" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T36" t="n">
-        <v>1989.866348722268</v>
+        <v>1989.866348722269</v>
       </c>
       <c r="U36" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V36" t="n">
         <v>1557.31899282775</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>202.9781691482327</v>
+        <v>675.3121492349903</v>
       </c>
       <c r="C37" t="n">
-        <v>202.9781691482327</v>
+        <v>675.3121492349903</v>
       </c>
       <c r="D37" t="n">
-        <v>202.9781691482327</v>
+        <v>519.6790361375051</v>
       </c>
       <c r="E37" t="n">
-        <v>202.9781691482327</v>
+        <v>519.6790361375051</v>
       </c>
       <c r="F37" t="n">
-        <v>45.65223436120566</v>
+        <v>362.353101350478</v>
       </c>
       <c r="G37" t="n">
-        <v>45.65223436120566</v>
+        <v>194.8099768382293</v>
       </c>
       <c r="H37" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I37" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J37" t="n">
-        <v>65.14097163269822</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K37" t="n">
         <v>227.9294000031423</v>
@@ -7119,28 +7119,28 @@
         <v>1608.089745976508</v>
       </c>
       <c r="R37" t="n">
-        <v>1608.089745976508</v>
+        <v>1516.154727105088</v>
       </c>
       <c r="S37" t="n">
-        <v>1608.089745976508</v>
+        <v>1516.154727105088</v>
       </c>
       <c r="T37" t="n">
-        <v>1608.089745976508</v>
+        <v>1516.154727105088</v>
       </c>
       <c r="U37" t="n">
-        <v>1394.688318487906</v>
+        <v>1516.154727105088</v>
       </c>
       <c r="V37" t="n">
-        <v>1128.70897330873</v>
+        <v>1516.154727105088</v>
       </c>
       <c r="W37" t="n">
-        <v>845.3785712399076</v>
+        <v>1317.712551326665</v>
       </c>
       <c r="X37" t="n">
-        <v>611.2982490228907</v>
+        <v>1083.632229109648</v>
       </c>
       <c r="Y37" t="n">
-        <v>388.186187839534</v>
+        <v>860.5201679262916</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1669.883559605005</v>
+        <v>924.4273307092445</v>
       </c>
       <c r="C38" t="n">
-        <v>1276.708058107936</v>
+        <v>924.4273307092445</v>
       </c>
       <c r="D38" t="n">
-        <v>1276.708058107936</v>
+        <v>538.9862019259123</v>
       </c>
       <c r="E38" t="n">
-        <v>874.12453322448</v>
+        <v>136.4026770424568</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2300947544578</v>
+        <v>136.4026770424568</v>
       </c>
       <c r="G38" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H38" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I38" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J38" t="n">
         <v>322.1411311121125</v>
@@ -7180,46 +7180,46 @@
         <v>878.7161580116265</v>
       </c>
       <c r="L38" t="n">
-        <v>972.1316505343693</v>
+        <v>1443.662558231547</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.659519543023</v>
+        <v>1568.190427240201</v>
       </c>
       <c r="N38" t="n">
-        <v>1226.201355108357</v>
+        <v>1697.732262805534</v>
       </c>
       <c r="O38" t="n">
-        <v>1339.856117247881</v>
+        <v>1811.387024945058</v>
       </c>
       <c r="P38" t="n">
-        <v>1904.8025174678</v>
+        <v>2197.581362882924</v>
       </c>
       <c r="Q38" t="n">
-        <v>2222.27259243225</v>
+        <v>2222.272592432251</v>
       </c>
       <c r="R38" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S38" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="T38" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="U38" t="n">
-        <v>2066.374268684404</v>
+        <v>2026.985780104382</v>
       </c>
       <c r="V38" t="n">
-        <v>2066.374268684404</v>
+        <v>1684.8789708079</v>
       </c>
       <c r="W38" t="n">
-        <v>2066.374268684404</v>
+        <v>1313.879935776188</v>
       </c>
       <c r="X38" t="n">
-        <v>2066.374268684404</v>
+        <v>924.4273307092445</v>
       </c>
       <c r="Y38" t="n">
-        <v>1669.883559605005</v>
+        <v>924.4273307092445</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>806.7841179455941</v>
       </c>
       <c r="C39" t="n">
-        <v>656.1298875056863</v>
+        <v>656.1298875056862</v>
       </c>
       <c r="D39" t="n">
         <v>526.0409201271666</v>
@@ -7241,16 +7241,16 @@
         <v>389.5944292380543</v>
       </c>
       <c r="F39" t="n">
-        <v>265.1626231211861</v>
+        <v>265.162623121186</v>
       </c>
       <c r="G39" t="n">
         <v>145.9507988407827</v>
       </c>
       <c r="H39" t="n">
-        <v>65.8432158286915</v>
+        <v>65.84321582869143</v>
       </c>
       <c r="I39" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J39" t="n">
         <v>237.2896955528579</v>
@@ -7259,34 +7259,34 @@
         <v>691.2362650545422</v>
       </c>
       <c r="L39" t="n">
-        <v>1256.182665274462</v>
+        <v>992.91683703431</v>
       </c>
       <c r="M39" t="n">
-        <v>1375.305905797396</v>
+        <v>1112.040077557244</v>
       </c>
       <c r="N39" t="n">
-        <v>1506.947603229942</v>
+        <v>1243.68177498979</v>
       </c>
       <c r="O39" t="n">
-        <v>1702.269868938225</v>
+        <v>1349.665342968283</v>
       </c>
       <c r="P39" t="n">
-        <v>2266.598432746756</v>
+        <v>1913.993906776815</v>
       </c>
       <c r="Q39" t="n">
-        <v>2282.611718060283</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R39" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S39" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T39" t="n">
         <v>1989.866348722269</v>
       </c>
       <c r="U39" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V39" t="n">
         <v>1557.31899282775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1526.44030891655</v>
+        <v>527.0492775334992</v>
       </c>
       <c r="C40" t="n">
-        <v>1356.23519098254</v>
+        <v>356.8441595994884</v>
       </c>
       <c r="D40" t="n">
-        <v>1200.602077885054</v>
+        <v>201.2110465020032</v>
       </c>
       <c r="E40" t="n">
-        <v>1045.043265744257</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="F40" t="n">
-        <v>887.7173309572297</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="G40" t="n">
-        <v>720.174206444981</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H40" t="n">
-        <v>720.174206444981</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I40" t="n">
-        <v>720.174206444981</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J40" t="n">
-        <v>739.6629437164736</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K40" t="n">
-        <v>902.4513720869177</v>
+        <v>227.9294000031423</v>
       </c>
       <c r="L40" t="n">
-        <v>1170.171476378421</v>
+        <v>495.6495042946459</v>
       </c>
       <c r="M40" t="n">
-        <v>1465.686783709865</v>
+        <v>791.1648116260899</v>
       </c>
       <c r="N40" t="n">
-        <v>1755.503050585834</v>
+        <v>1080.981078502059</v>
       </c>
       <c r="O40" t="n">
-        <v>2016.694771080304</v>
+        <v>1342.172798996529</v>
       </c>
       <c r="P40" t="n">
-        <v>2220.843539682682</v>
+        <v>1546.321567598907</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.611718060283</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="R40" t="n">
-        <v>2190.676699188863</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="S40" t="n">
-        <v>2190.676699188863</v>
+        <v>1417.663222498895</v>
       </c>
       <c r="T40" t="n">
-        <v>2190.676699188863</v>
+        <v>1417.663222498895</v>
       </c>
       <c r="U40" t="n">
-        <v>2190.676699188863</v>
+        <v>1218.69975947698</v>
       </c>
       <c r="V40" t="n">
-        <v>2190.676699188863</v>
+        <v>1218.69975947698</v>
       </c>
       <c r="W40" t="n">
-        <v>2168.840711008225</v>
+        <v>935.3693574081572</v>
       </c>
       <c r="X40" t="n">
-        <v>1934.760388791208</v>
+        <v>935.3693574081572</v>
       </c>
       <c r="Y40" t="n">
-        <v>1711.648327607852</v>
+        <v>712.2572962248005</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>462.5466728312279</v>
+        <v>1241.04246595804</v>
       </c>
       <c r="C41" t="n">
-        <v>462.5466728312279</v>
+        <v>1241.04246595804</v>
       </c>
       <c r="D41" t="n">
-        <v>462.5466728312279</v>
+        <v>874.12453322448</v>
       </c>
       <c r="E41" t="n">
-        <v>462.5466728312279</v>
+        <v>874.12453322448</v>
       </c>
       <c r="F41" t="n">
-        <v>45.65223436120566</v>
+        <v>457.2300947544578</v>
       </c>
       <c r="G41" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H41" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I41" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J41" t="n">
         <v>322.1411311121125</v>
       </c>
       <c r="K41" t="n">
-        <v>878.7161580116265</v>
+        <v>378.1059828367195</v>
       </c>
       <c r="L41" t="n">
-        <v>1264.910495949492</v>
+        <v>471.5214753594624</v>
       </c>
       <c r="M41" t="n">
-        <v>1389.438364958146</v>
+        <v>1036.467875579383</v>
       </c>
       <c r="N41" t="n">
-        <v>1518.98020052348</v>
+        <v>1166.009711144716</v>
       </c>
       <c r="O41" t="n">
-        <v>1632.634962663003</v>
+        <v>1730.956111364637</v>
       </c>
       <c r="P41" t="n">
-        <v>2197.581362882923</v>
+        <v>1869.682091307768</v>
       </c>
       <c r="Q41" t="n">
-        <v>2222.27259243225</v>
+        <v>2222.272592432251</v>
       </c>
       <c r="R41" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S41" t="n">
-        <v>2236.546491778957</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="T41" t="n">
-        <v>2019.983767720679</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="U41" t="n">
-        <v>2019.983767720679</v>
+        <v>2026.985780104382</v>
       </c>
       <c r="V41" t="n">
-        <v>2019.983767720679</v>
+        <v>2026.985780104382</v>
       </c>
       <c r="W41" t="n">
-        <v>1648.984732688967</v>
+        <v>2026.985780104382</v>
       </c>
       <c r="X41" t="n">
-        <v>1259.532127622024</v>
+        <v>1637.533175037438</v>
       </c>
       <c r="Y41" t="n">
-        <v>863.0414185426248</v>
+        <v>1241.04246595804</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>806.7841179455934</v>
+        <v>806.7841179455943</v>
       </c>
       <c r="C42" t="n">
-        <v>656.1298875056856</v>
+        <v>656.1298875056865</v>
       </c>
       <c r="D42" t="n">
-        <v>526.0409201271659</v>
+        <v>526.0409201271668</v>
       </c>
       <c r="E42" t="n">
-        <v>389.5944292380536</v>
+        <v>389.5944292380545</v>
       </c>
       <c r="F42" t="n">
-        <v>265.1626231211854</v>
+        <v>265.1626231211864</v>
       </c>
       <c r="G42" t="n">
-        <v>145.950798840782</v>
+        <v>145.9507988407829</v>
       </c>
       <c r="H42" t="n">
-        <v>65.84321582869083</v>
+        <v>65.84321582869174</v>
       </c>
       <c r="I42" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J42" t="n">
-        <v>237.2896955528579</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="K42" t="n">
-        <v>691.2362650545422</v>
+        <v>499.5988038628898</v>
       </c>
       <c r="L42" t="n">
-        <v>782.534964705288</v>
+        <v>590.8975035136357</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.20124034794</v>
+        <v>710.0207440365693</v>
       </c>
       <c r="N42" t="n">
-        <v>1271.842937780487</v>
+        <v>1274.96714425649</v>
       </c>
       <c r="O42" t="n">
-        <v>1377.826505758979</v>
+        <v>1380.950712234982</v>
       </c>
       <c r="P42" t="n">
-        <v>1942.155069567511</v>
+        <v>1913.993906776815</v>
       </c>
       <c r="Q42" t="n">
-        <v>2282.611718060283</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R42" t="n">
-        <v>2282.611718060283</v>
+        <v>2282.611718060284</v>
       </c>
       <c r="S42" t="n">
-        <v>2163.432151039738</v>
+        <v>2163.432151039739</v>
       </c>
       <c r="T42" t="n">
-        <v>1989.866348722268</v>
+        <v>1989.866348722269</v>
       </c>
       <c r="U42" t="n">
-        <v>1779.858994456682</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V42" t="n">
-        <v>1557.318992827749</v>
+        <v>1557.31899282775</v>
       </c>
       <c r="W42" t="n">
-        <v>1327.201746961036</v>
+        <v>1327.201746961037</v>
       </c>
       <c r="X42" t="n">
-        <v>1137.894669311047</v>
+        <v>1137.894669311048</v>
       </c>
       <c r="Y42" t="n">
-        <v>958.5804523865547</v>
+        <v>958.5804523865556</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.4392640330273</v>
+        <v>733.0078994394644</v>
       </c>
       <c r="C43" t="n">
-        <v>830.8709613757878</v>
+        <v>562.8027815054536</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2378482783026</v>
+        <v>407.1696684079683</v>
       </c>
       <c r="E43" t="n">
-        <v>519.6790361375051</v>
+        <v>370.5212936604814</v>
       </c>
       <c r="F43" t="n">
-        <v>362.353101350478</v>
+        <v>213.1953588734544</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8099768382293</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H43" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I43" t="n">
-        <v>45.65223436120566</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J43" t="n">
-        <v>65.14097163269822</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K43" t="n">
         <v>227.9294000031423</v>
@@ -7599,22 +7599,22 @@
         <v>1608.089745976508</v>
       </c>
       <c r="T43" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="U43" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="V43" t="n">
-        <v>1608.089745976508</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="W43" t="n">
-        <v>1324.759343907685</v>
+        <v>1375.408301531139</v>
       </c>
       <c r="X43" t="n">
-        <v>1324.759343907685</v>
+        <v>1141.327979314122</v>
       </c>
       <c r="Y43" t="n">
-        <v>1101.647282724329</v>
+        <v>918.2159181307657</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>924.427330709245</v>
+        <v>855.7221743282973</v>
       </c>
       <c r="C44" t="n">
-        <v>924.427330709245</v>
+        <v>462.5466728312279</v>
       </c>
       <c r="D44" t="n">
-        <v>538.9862019259127</v>
+        <v>462.5466728312279</v>
       </c>
       <c r="E44" t="n">
-        <v>538.9862019259127</v>
+        <v>462.5466728312279</v>
       </c>
       <c r="F44" t="n">
-        <v>538.9862019259127</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="G44" t="n">
-        <v>353.5039776598704</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="H44" t="n">
-        <v>45.65223436120569</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I44" t="n">
-        <v>45.65223436120569</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J44" t="n">
         <v>322.1411311121125</v>
       </c>
       <c r="K44" t="n">
-        <v>843.5957318515939</v>
+        <v>378.1059828367195</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0112243743368</v>
+        <v>943.0523830566397</v>
       </c>
       <c r="M44" t="n">
-        <v>1061.539093382991</v>
+        <v>1507.99878327656</v>
       </c>
       <c r="N44" t="n">
-        <v>1191.080928948325</v>
+        <v>1681.451269736336</v>
       </c>
       <c r="O44" t="n">
-        <v>1304.735691087848</v>
+        <v>1795.10603187586</v>
       </c>
       <c r="P44" t="n">
         <v>1869.682091307768</v>
@@ -7675,25 +7675,25 @@
         <v>2282.611718060284</v>
       </c>
       <c r="S44" t="n">
-        <v>2282.611718060284</v>
+        <v>2152.21396051973</v>
       </c>
       <c r="T44" t="n">
-        <v>2282.611718060284</v>
+        <v>1935.651236461452</v>
       </c>
       <c r="U44" t="n">
-        <v>2026.985780104382</v>
+        <v>1680.02529850555</v>
       </c>
       <c r="V44" t="n">
-        <v>1684.878970807901</v>
+        <v>1337.918489209068</v>
       </c>
       <c r="W44" t="n">
-        <v>1313.879935776188</v>
+        <v>1256.216920039694</v>
       </c>
       <c r="X44" t="n">
-        <v>924.427330709245</v>
+        <v>1256.216920039694</v>
       </c>
       <c r="Y44" t="n">
-        <v>924.427330709245</v>
+        <v>1256.216920039694</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>806.7841179455952</v>
+        <v>806.7841179455943</v>
       </c>
       <c r="C45" t="n">
-        <v>656.1298875056874</v>
+        <v>656.1298875056865</v>
       </c>
       <c r="D45" t="n">
-        <v>526.0409201271677</v>
+        <v>526.0409201271668</v>
       </c>
       <c r="E45" t="n">
-        <v>389.5944292380555</v>
+        <v>389.5944292380545</v>
       </c>
       <c r="F45" t="n">
-        <v>265.1626231211873</v>
+        <v>265.1626231211864</v>
       </c>
       <c r="G45" t="n">
-        <v>145.9507988407838</v>
+        <v>145.9507988407829</v>
       </c>
       <c r="H45" t="n">
-        <v>65.84321582869265</v>
+        <v>65.84321582869174</v>
       </c>
       <c r="I45" t="n">
-        <v>45.65223436120569</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J45" t="n">
-        <v>45.65223436120569</v>
+        <v>237.2896955528579</v>
       </c>
       <c r="K45" t="n">
-        <v>91.15869182066341</v>
+        <v>282.7961530123157</v>
       </c>
       <c r="L45" t="n">
-        <v>182.4573914714092</v>
+        <v>374.0948526630615</v>
       </c>
       <c r="M45" t="n">
-        <v>747.4037916913295</v>
+        <v>939.0412528829818</v>
       </c>
       <c r="N45" t="n">
-        <v>1312.35019191125</v>
+        <v>1276.552842635881</v>
       </c>
       <c r="O45" t="n">
-        <v>1877.29659213117</v>
+        <v>1841.499242855802</v>
       </c>
       <c r="P45" t="n">
-        <v>1949.791256052183</v>
+        <v>1913.993906776815</v>
       </c>
       <c r="Q45" t="n">
-        <v>2254.450555269587</v>
+        <v>2254.450555269586</v>
       </c>
       <c r="R45" t="n">
         <v>2282.611718060284</v>
@@ -7757,22 +7757,22 @@
         <v>2163.432151039739</v>
       </c>
       <c r="T45" t="n">
-        <v>1989.86634872227</v>
+        <v>1989.866348722269</v>
       </c>
       <c r="U45" t="n">
-        <v>1779.858994456684</v>
+        <v>1779.858994456683</v>
       </c>
       <c r="V45" t="n">
-        <v>1557.318992827751</v>
+        <v>1557.31899282775</v>
       </c>
       <c r="W45" t="n">
-        <v>1327.201746961038</v>
+        <v>1327.201746961037</v>
       </c>
       <c r="X45" t="n">
-        <v>1137.894669311049</v>
+        <v>1137.894669311048</v>
       </c>
       <c r="Y45" t="n">
-        <v>958.5804523865565</v>
+        <v>958.5804523865556</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>786.9526880365379</v>
+        <v>520.6482078697254</v>
       </c>
       <c r="C46" t="n">
-        <v>786.9526880365379</v>
+        <v>350.4430899357146</v>
       </c>
       <c r="D46" t="n">
-        <v>786.9526880365379</v>
+        <v>194.8099768382293</v>
       </c>
       <c r="E46" t="n">
-        <v>631.3938758957404</v>
+        <v>194.8099768382293</v>
       </c>
       <c r="F46" t="n">
-        <v>474.0679411087134</v>
+        <v>194.8099768382293</v>
       </c>
       <c r="G46" t="n">
-        <v>306.5248165964647</v>
+        <v>194.8099768382293</v>
       </c>
       <c r="H46" t="n">
-        <v>157.367074119441</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="I46" t="n">
-        <v>45.65223436120569</v>
+        <v>45.65223436120567</v>
       </c>
       <c r="J46" t="n">
-        <v>65.14097163269825</v>
+        <v>65.14097163269824</v>
       </c>
       <c r="K46" t="n">
         <v>227.9294000031423</v>
@@ -7830,28 +7830,28 @@
         <v>1608.089745976508</v>
       </c>
       <c r="R46" t="n">
-        <v>1516.154727105088</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="S46" t="n">
-        <v>1325.728203627476</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="T46" t="n">
-        <v>1093.046759182107</v>
+        <v>1608.089745976508</v>
       </c>
       <c r="U46" t="n">
-        <v>807.646745390643</v>
+        <v>1478.278034992381</v>
       </c>
       <c r="V46" t="n">
-        <v>786.9526880365379</v>
+        <v>1212.298689813206</v>
       </c>
       <c r="W46" t="n">
-        <v>786.9526880365379</v>
+        <v>928.9682877443834</v>
       </c>
       <c r="X46" t="n">
-        <v>786.9526880365379</v>
+        <v>928.9682877443834</v>
       </c>
       <c r="Y46" t="n">
-        <v>786.9526880365379</v>
+        <v>705.8562265610267</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>227.8069106117196</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>380.2624223790764</v>
+        <v>184.2583828371828</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>319.5579104714845</v>
@@ -8072,13 +8072,13 @@
         <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>307.7529874266314</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L5" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,22 +8455,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>177.0153387754951</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N8" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8537,22 +8537,22 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P9" t="n">
-        <v>307.7529874266314</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>470.1916656715892</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>444.8672032437034</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>455.8501394751482</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>495.3235765535477</v>
       </c>
       <c r="Q11" t="n">
-        <v>164.4764280506242</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>3.128822008156661</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>245.7100403789018</v>
+        <v>270.2018832914057</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>463.5988204458863</v>
+        <v>463.5988204458864</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5537073603668</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>476.2938461587648</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>444.8672032437034</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>439.802590560188</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>228.3155417290076</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>495.3235765535477</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>450.3264239363498</v>
+        <v>212.5069417464864</v>
       </c>
       <c r="N15" t="n">
-        <v>396.7650996531426</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>42.56818592515829</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>14.34152619644163</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>455.8501394751483</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>495.3235765535478</v>
+        <v>495.3235765535477</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>67.04243706242522</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>478.4320207769439</v>
+        <v>212.5069417464864</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>255.3686829603488</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>459.8483986141194</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>220.1463854221575</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>439.8025905601881</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>455.8501394751482</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>41.56900325636501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>3.128822008156661</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>340.2138838320466</v>
       </c>
       <c r="L21" t="n">
-        <v>240.9525607269883</v>
+        <v>478.4320207769438</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>42.56818592515829</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>25.32446242788593</v>
+        <v>489.2213960663723</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>476.2938461587648</v>
       </c>
       <c r="M23" t="n">
-        <v>444.8672032437033</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>495.3235765535476</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>478.4320207769436</v>
+        <v>245.7100403789018</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>463.5988204458864</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>283.8143019408502</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>42.56818592515829</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>459.84839861412</v>
+        <v>459.8483986141205</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>478.4320207769438</v>
       </c>
       <c r="M27" t="n">
-        <v>450.3264239363498</v>
+        <v>230.8768400478448</v>
       </c>
       <c r="N27" t="n">
-        <v>437.6815179670439</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>463.5988204458863</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>320.007249186439</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>42.56818592515829</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>470.1916656715892</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>495.3235765535477</v>
+        <v>495.3235765535478</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>67.04243706242522</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>263.4560333653425</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>478.4320207769437</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>437.6815179670439</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>463.5988204458863</v>
+        <v>212.5069417464867</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,7 +10351,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>470.1916656715898</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>459.8483986141196</v>
+        <v>495.3235765535478</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10430,16 +10430,16 @@
         <v>3.128822008156661</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>434.5257538498703</v>
       </c>
       <c r="M33" t="n">
-        <v>409.4100056224482</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>437.6815179670438</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>476.2938461587647</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>455.8501394751481</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>94.31986833671172</v>
+        <v>459.8483986141205</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>41.56900325636501</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>174.7462875497595</v>
       </c>
       <c r="L36" t="n">
-        <v>427.439881783898</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>450.3264239363498</v>
+        <v>450.32642393635</v>
       </c>
       <c r="N36" t="n">
-        <v>437.6815179670438</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10828,7 +10828,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>476.2938461587649</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>495.3235765535476</v>
+        <v>314.7659378848065</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.7362074900232</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10907,7 +10907,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>478.4320207769437</v>
+        <v>212.5069417464869</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>90.24110881796923</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>42.56818592515829</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>295.7362074900229</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>444.8672032437035</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>455.8501394751483</v>
       </c>
       <c r="P41" t="n">
-        <v>495.3235765535476</v>
+        <v>64.79789950628603</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>3.128822008156661</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>240.9525607269882</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>437.681517967044</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>465.2005359806258</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>42.56818592515829</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>470.1916656715903</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>476.2938461587649</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>444.8672032437035</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>44.35419282266932</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>495.3235765535479</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>3.128822008156661</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>450.3264239363501</v>
+        <v>450.32642393635</v>
       </c>
       <c r="N45" t="n">
-        <v>437.6815179670441</v>
+        <v>207.9493861821748</v>
       </c>
       <c r="O45" t="n">
-        <v>463.5988204458866</v>
+        <v>463.5988204458865</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>291.5616302059366</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>171.4756388790564</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>113.2905945925156</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H11" t="n">
         <v>304.7732258656781</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.0937799651481</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>214.3970968176954</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0696785763428</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23427,10 +23427,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>123.1033468080812</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.6661650522534</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.5222582428364</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5460136535496</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>21.18160285122192</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.9545763771035</v>
+        <v>352.0833094037715</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.46309336370723</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>214.3970968176954</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0696785763428</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>15.83994415640294</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.5222582428364</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>21.18160285122192</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>299.7750247057131</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>171.475638879056</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H17" t="n">
-        <v>304.7732258656781</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.46309336370723</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>129.0937799651481</v>
       </c>
       <c r="T17" t="n">
-        <v>214.3970968176954</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0696785763428</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.6661650522534</v>
       </c>
       <c r="I19" t="n">
-        <v>13.4369760684977</v>
+        <v>110.597691360653</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>188.5222582428364</v>
       </c>
       <c r="T19" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.64410276141558</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>125.3723709136879</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23977,16 +23977,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.4620817893195</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>304.7732258656781</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0696785763428</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.9822250048815</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.5222582428364</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>84.02899175534753</v>
       </c>
       <c r="X22" t="n">
-        <v>21.18160285122192</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>183.914734839192</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>407.4620817893195</v>
       </c>
       <c r="H23" t="n">
-        <v>62.75489530939933</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>76.46309336370723</v>
@@ -24259,22 +24259,22 @@
         <v>129.0937799651481</v>
       </c>
       <c r="T23" t="n">
-        <v>214.3970968176954</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.0696785763428</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>166.2190815570674</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>230.3546300009147</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5460136535496</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.4289673620639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>311.1015973130577</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>407.4620817893195</v>
       </c>
       <c r="H26" t="n">
-        <v>304.7732258656781</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46309336370723</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>129.0937799651481</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.3970968176954</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0696785763428</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>156.5393590783418</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.16996746024603</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H28" t="n">
-        <v>35.03286807071602</v>
+        <v>147.6661650522534</v>
       </c>
       <c r="I28" t="n">
         <v>110.597691360653</v>
@@ -24654,13 +24654,13 @@
         <v>188.5222582428364</v>
       </c>
       <c r="T28" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5460136535496</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.4620817893195</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.7732258656781</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>76.46309336370723</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.00745834341227</v>
+        <v>129.0937799651481</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>255.9731309315008</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>56.59865238871643</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.6661650522534</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>188.5222582428364</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>21.18160285122227</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24925,7 +24925,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>304.7732258656781</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>60.66921300600484</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>15.86476657358691</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8676932671262</v>
+        <v>55.17753424505996</v>
       </c>
       <c r="H34" t="n">
-        <v>147.6661650522534</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.597691360653</v>
@@ -25128,13 +25128,13 @@
         <v>188.5222582428364</v>
       </c>
       <c r="T34" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5460136535496</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5629840876979</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>329.5045670548164</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H35" t="n">
         <v>304.7732258656781</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46309336370723</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>129.0937799651481</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>253.0696785763428</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>96.9281637361351</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25317,7 +25317,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.8676932671262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.6661650522534</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.597691360653</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>91.01566868270503</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>188.5222582428364</v>
@@ -25368,13 +25368,13 @@
         <v>230.3546300009147</v>
       </c>
       <c r="U37" t="n">
-        <v>71.27860043983364</v>
+        <v>282.5460136535496</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>84.03934402749516</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>317.6191435348809</v>
       </c>
       <c r="H38" t="n">
         <v>304.7732258656781</v>
@@ -25447,19 +25447,19 @@
         <v>214.3970968176954</v>
       </c>
       <c r="U38" t="n">
-        <v>38.99460369422268</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H40" t="n">
         <v>147.6661650522534</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S40" t="n">
-        <v>188.5222582428364</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>230.3546300009147</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5460136535496</v>
+        <v>85.57218526185326</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>258.8794697493024</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>18.33796408927492</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.4620817893195</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>304.7732258656781</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.48920594663582</v>
+        <v>129.0937799651481</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.3970968176954</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0696785763428</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>83.79044712400363</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>117.7213330193775</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.6661650522534</v>
       </c>
       <c r="I43" t="n">
         <v>110.597691360653</v>
@@ -25839,7 +25839,7 @@
         <v>188.5222582428364</v>
       </c>
       <c r="T43" t="n">
-        <v>230.3546300009147</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5460136535496</v>
@@ -25848,10 +25848,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>223.8346797659377</v>
+        <v>407.4620817893195</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.7732258656781</v>
       </c>
       <c r="I44" t="n">
         <v>76.46309336370723</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>129.0937799651481</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.3970968176954</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>286.4044912037155</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8676932671262</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.597691360653</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>91.01566868270503</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.5222582428364</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.3546300009147</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>154.0324197792646</v>
       </c>
       <c r="V46" t="n">
-        <v>242.83243494682</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608553.2932230826</v>
+        <v>608553.2932230827</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608553.2932230826</v>
+        <v>608553.2932230827</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608553.2932230824</v>
+        <v>608553.2932230826</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608553.2932230823</v>
+        <v>608553.2932230826</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608553.2932230826</v>
+        <v>608553.2932230828</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608553.2932230827</v>
+        <v>608553.2932230824</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608553.2932230824</v>
+        <v>608553.2932230827</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608553.2932230823</v>
+        <v>608553.2932230827</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432797.2274240561</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="D2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="E2" t="n">
-        <v>285690.1750212547</v>
+        <v>285690.1750212546</v>
       </c>
       <c r="F2" t="n">
-        <v>285690.1750212549</v>
+        <v>285690.1750212548</v>
       </c>
       <c r="G2" t="n">
         <v>285690.1750212546</v>
       </c>
       <c r="H2" t="n">
-        <v>285690.1750212547</v>
+        <v>285690.1750212545</v>
       </c>
       <c r="I2" t="n">
         <v>285690.1750212545</v>
@@ -26340,22 +26340,22 @@
         <v>285690.1750212546</v>
       </c>
       <c r="K2" t="n">
-        <v>285690.1750212545</v>
+        <v>285690.1750212546</v>
       </c>
       <c r="L2" t="n">
-        <v>285690.1750212545</v>
+        <v>285690.1750212546</v>
       </c>
       <c r="M2" t="n">
         <v>285690.1750212544</v>
       </c>
       <c r="N2" t="n">
-        <v>285690.1750212545</v>
+        <v>285690.1750212546</v>
       </c>
       <c r="O2" t="n">
         <v>285690.1750212546</v>
       </c>
       <c r="P2" t="n">
-        <v>285690.1750212545</v>
+        <v>285690.1750212546</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>322568.5699589869</v>
       </c>
       <c r="C4" t="n">
-        <v>322568.569958987</v>
+        <v>322568.5699589869</v>
       </c>
       <c r="D4" t="n">
         <v>322568.5699589869</v>
@@ -26429,37 +26429,37 @@
         <v>61450.7722464203</v>
       </c>
       <c r="F4" t="n">
-        <v>61450.7722464203</v>
+        <v>61450.77224642031</v>
       </c>
       <c r="G4" t="n">
-        <v>61450.77224642033</v>
+        <v>61450.77224642031</v>
       </c>
       <c r="H4" t="n">
         <v>61450.7722464203</v>
       </c>
       <c r="I4" t="n">
-        <v>61450.77224642029</v>
+        <v>61450.7722464203</v>
       </c>
       <c r="J4" t="n">
-        <v>61450.7722464203</v>
+        <v>61450.77224642033</v>
       </c>
       <c r="K4" t="n">
-        <v>61450.7722464203</v>
+        <v>61450.77224642032</v>
       </c>
       <c r="L4" t="n">
-        <v>61450.77224642029</v>
+        <v>61450.77224642032</v>
       </c>
       <c r="M4" t="n">
-        <v>61450.7722464203</v>
+        <v>61450.77224642031</v>
       </c>
       <c r="N4" t="n">
-        <v>61450.77224642028</v>
+        <v>61450.77224642031</v>
       </c>
       <c r="O4" t="n">
-        <v>61450.77224642028</v>
+        <v>61450.77224642033</v>
       </c>
       <c r="P4" t="n">
-        <v>61450.77224642034</v>
+        <v>61450.77224642033</v>
       </c>
     </row>
     <row r="5">
@@ -26487,10 +26487,10 @@
         <v>43204.24321963762</v>
       </c>
       <c r="H5" t="n">
-        <v>43204.24321963761</v>
+        <v>43204.24321963762</v>
       </c>
       <c r="I5" t="n">
-        <v>43204.24321963761</v>
+        <v>43204.24321963762</v>
       </c>
       <c r="J5" t="n">
         <v>43204.24321963762</v>
@@ -26499,19 +26499,19 @@
         <v>43204.24321963762</v>
       </c>
       <c r="L5" t="n">
-        <v>43204.24321963761</v>
+        <v>43204.24321963762</v>
       </c>
       <c r="M5" t="n">
-        <v>43204.24321963761</v>
+        <v>43204.24321963762</v>
       </c>
       <c r="N5" t="n">
-        <v>43204.24321963761</v>
+        <v>43204.24321963762</v>
       </c>
       <c r="O5" t="n">
-        <v>43204.24321963761</v>
+        <v>43204.24321963762</v>
       </c>
       <c r="P5" t="n">
-        <v>43204.24321963763</v>
+        <v>43204.24321963762</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14445.78169455304</v>
+        <v>-14445.78169455286</v>
       </c>
       <c r="C6" t="n">
-        <v>62619.43017666973</v>
+        <v>62619.43017666985</v>
       </c>
       <c r="D6" t="n">
-        <v>62619.43017666979</v>
+        <v>62619.43017666991</v>
       </c>
       <c r="E6" t="n">
-        <v>-234256.3418395707</v>
+        <v>-234869.2878912492</v>
       </c>
       <c r="F6" t="n">
-        <v>181035.159555197</v>
+        <v>180422.2135035185</v>
       </c>
       <c r="G6" t="n">
-        <v>181035.1595551967</v>
+        <v>180422.2135035184</v>
       </c>
       <c r="H6" t="n">
-        <v>181035.1595551969</v>
+        <v>180422.2135035183</v>
       </c>
       <c r="I6" t="n">
-        <v>181035.1595551966</v>
+        <v>180422.2135035183</v>
       </c>
       <c r="J6" t="n">
-        <v>120867.2501761502</v>
+        <v>120254.3041244718</v>
       </c>
       <c r="K6" t="n">
-        <v>181035.1595551966</v>
+        <v>180422.2135035183</v>
       </c>
       <c r="L6" t="n">
-        <v>181035.1595551966</v>
+        <v>180422.2135035183</v>
       </c>
       <c r="M6" t="n">
-        <v>96133.36175665061</v>
+        <v>95520.41570497224</v>
       </c>
       <c r="N6" t="n">
-        <v>181035.1595551966</v>
+        <v>180422.2135035183</v>
       </c>
       <c r="O6" t="n">
-        <v>181035.1595551967</v>
+        <v>180422.2135035183</v>
       </c>
       <c r="P6" t="n">
-        <v>181035.1595551965</v>
+        <v>180422.2135035183</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>570.6529295150708</v>
       </c>
       <c r="G4" t="n">
+        <v>570.6529295150708</v>
+      </c>
+      <c r="H4" t="n">
+        <v>570.6529295150708</v>
+      </c>
+      <c r="I4" t="n">
+        <v>570.6529295150708</v>
+      </c>
+      <c r="J4" t="n">
         <v>570.6529295150709</v>
       </c>
-      <c r="H4" t="n">
-        <v>570.6529295150707</v>
-      </c>
-      <c r="I4" t="n">
-        <v>570.6529295150707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>570.6529295150708</v>
-      </c>
       <c r="K4" t="n">
-        <v>570.6529295150708</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="L4" t="n">
-        <v>570.6529295150707</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="M4" t="n">
-        <v>570.6529295150707</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="N4" t="n">
-        <v>570.6529295150707</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="O4" t="n">
-        <v>570.6529295150707</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="P4" t="n">
-        <v>570.652929515071</v>
+        <v>570.6529295150709</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>224.925668588297</v>
       </c>
       <c r="F2" t="n">
-        <v>347.1296129220984</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G2" t="n">
         <v>179.0701528187257</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27469,16 +27469,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>180.9213160803316</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>16.82563474179824</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27560,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>19.23274898312373</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27602,7 +27602,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>96.19818194796127</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>367.8197188178363</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27630,7 +27630,7 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G5" t="n">
-        <v>179.0701528187257</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>79.56318122342347</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27681,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -27754,16 +27754,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>120.240863362816</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>101.1044291384804</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>230.8292953804213</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.8304047155598</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>315.9908363322753</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>99.58828758003948</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.21814208904536</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>51.60314864100599</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>95.83648238055426</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28025,13 +28025,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>78.84890645973482</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625762</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>229.9609751381512</v>
@@ -34792,13 +34792,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="P3" t="n">
-        <v>220.6696226073168</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="L5" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="Q6" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>33.95693559625769</v>
-      </c>
-      <c r="L8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M8" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35257,22 +35257,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N9" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>15.49099422136979</v>
+        <v>279.2817138898049</v>
       </c>
       <c r="K11" t="n">
-        <v>56.53015325717877</v>
+        <v>526.721818928768</v>
       </c>
       <c r="L11" t="n">
         <v>94.35908335630597</v>
       </c>
       <c r="M11" t="n">
-        <v>570.6529295150708</v>
+        <v>125.7857262713674</v>
       </c>
       <c r="N11" t="n">
         <v>130.8503389548827</v>
       </c>
       <c r="O11" t="n">
-        <v>570.6529295150708</v>
+        <v>114.8027900399226</v>
       </c>
       <c r="P11" t="n">
         <v>570.6529295150708</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.4170639590347</v>
+        <v>356.1520213378618</v>
       </c>
       <c r="R11" t="n">
         <v>60.9486117454876</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>193.5731931228811</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>458.5318883855396</v>
       </c>
       <c r="L12" t="n">
-        <v>337.9309491170289</v>
+        <v>362.4227920295328</v>
       </c>
       <c r="M12" t="n">
         <v>120.3265055787209</v>
@@ -35506,10 +35506,10 @@
         <v>570.6529295150708</v>
       </c>
       <c r="P12" t="n">
-        <v>73.22693325354837</v>
+        <v>570.0288523318503</v>
       </c>
       <c r="Q12" t="n">
-        <v>343.8956045381534</v>
+        <v>16.17503567022881</v>
       </c>
       <c r="R12" t="n">
         <v>28.44561898050219</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>215.0447015817366</v>
+        <v>15.49099422136979</v>
       </c>
       <c r="K14" t="n">
-        <v>56.53015325717877</v>
+        <v>562.1969968681958</v>
       </c>
       <c r="L14" t="n">
+        <v>94.35908335630597</v>
+      </c>
+      <c r="M14" t="n">
+        <v>125.7857262713674</v>
+      </c>
+      <c r="N14" t="n">
+        <v>130.8503389548827</v>
+      </c>
+      <c r="O14" t="n">
+        <v>343.1183317689302</v>
+      </c>
+      <c r="P14" t="n">
         <v>570.6529295150708</v>
       </c>
-      <c r="M14" t="n">
-        <v>570.6529295150708</v>
-      </c>
-      <c r="N14" t="n">
-        <v>570.6529295150708</v>
-      </c>
-      <c r="O14" t="n">
-        <v>114.8027900399226</v>
-      </c>
-      <c r="P14" t="n">
-        <v>75.32935296152311</v>
-      </c>
       <c r="Q14" t="n">
-        <v>24.94063590841054</v>
+        <v>356.1520213378618</v>
       </c>
       <c r="R14" t="n">
         <v>60.9486117454876</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K15" t="n">
-        <v>45.96611864591689</v>
+        <v>458.5318883855396</v>
       </c>
       <c r="L15" t="n">
         <v>92.22090873812711</v>
       </c>
       <c r="M15" t="n">
-        <v>570.6529295150708</v>
+        <v>332.8334473252073</v>
       </c>
       <c r="N15" t="n">
-        <v>529.7365112011695</v>
+        <v>132.9714115480269</v>
       </c>
       <c r="O15" t="n">
         <v>107.0541090691845</v>
@@ -35749,7 +35749,7 @@
         <v>343.8956045381534</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>28.44561898050219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K17" t="n">
-        <v>70.8716794536204</v>
+        <v>562.1969968681958</v>
       </c>
       <c r="L17" t="n">
         <v>94.35908335630597</v>
@@ -35898,16 +35898,16 @@
         <v>130.8503389548827</v>
       </c>
       <c r="O17" t="n">
-        <v>570.6529295150709</v>
+        <v>114.8027900399226</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6529295150709</v>
+        <v>570.6529295150708</v>
       </c>
       <c r="Q17" t="n">
         <v>356.1520213378618</v>
       </c>
       <c r="R17" t="n">
-        <v>60.9486117454876</v>
+        <v>25.47343380606021</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K18" t="n">
         <v>458.5318883855396</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6529295150709</v>
+        <v>304.7278504846135</v>
       </c>
       <c r="M18" t="n">
         <v>120.3265055787209</v>
       </c>
       <c r="N18" t="n">
-        <v>388.3400945083757</v>
+        <v>132.9714115480269</v>
       </c>
       <c r="O18" t="n">
         <v>107.0541090691845</v>
@@ -35983,7 +35983,7 @@
         <v>570.0288523318503</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.17503567022881</v>
+        <v>343.8956045381534</v>
       </c>
       <c r="R18" t="n">
         <v>28.44561898050219</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>279.2817138898049</v>
+        <v>15.49099422136979</v>
       </c>
       <c r="K20" t="n">
         <v>562.1969968681958</v>
       </c>
       <c r="L20" t="n">
-        <v>554.2074819704254</v>
+        <v>94.35908335630597</v>
       </c>
       <c r="M20" t="n">
-        <v>125.7857262713674</v>
+        <v>345.9321116935249</v>
       </c>
       <c r="N20" t="n">
-        <v>130.8503389548827</v>
+        <v>570.6529295150708</v>
       </c>
       <c r="O20" t="n">
-        <v>114.8027900399226</v>
+        <v>570.6529295150708</v>
       </c>
       <c r="P20" t="n">
         <v>75.32935296152311</v>
       </c>
       <c r="Q20" t="n">
-        <v>356.1520213378618</v>
+        <v>24.94063590841054</v>
       </c>
       <c r="R20" t="n">
-        <v>60.9486117454876</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>193.5731931228811</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>458.5318883855396</v>
+        <v>386.1800024779635</v>
       </c>
       <c r="L21" t="n">
-        <v>333.1734694651154</v>
+        <v>570.6529295150708</v>
       </c>
       <c r="M21" t="n">
         <v>120.3265055787209</v>
@@ -36223,7 +36223,7 @@
         <v>343.8956045381534</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>28.44561898050219</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K23" t="n">
-        <v>81.8546156850647</v>
+        <v>545.7515493235511</v>
       </c>
       <c r="L23" t="n">
-        <v>94.35908335630597</v>
+        <v>570.6529295150708</v>
       </c>
       <c r="M23" t="n">
-        <v>570.6529295150707</v>
+        <v>125.7857262713674</v>
       </c>
       <c r="N23" t="n">
         <v>130.8503389548827</v>
@@ -36375,7 +36375,7 @@
         <v>114.8027900399226</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6529295150707</v>
+        <v>75.32935296152311</v>
       </c>
       <c r="Q23" t="n">
         <v>356.1520213378618</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K24" t="n">
         <v>458.5318883855396</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6529295150707</v>
+        <v>337.9309491170289</v>
       </c>
       <c r="M24" t="n">
         <v>120.3265055787209</v>
@@ -36451,16 +36451,16 @@
         <v>132.9714115480269</v>
       </c>
       <c r="O24" t="n">
-        <v>107.0541090691845</v>
+        <v>570.6529295150708</v>
       </c>
       <c r="P24" t="n">
-        <v>570.0288523318503</v>
+        <v>73.22693325354837</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.989337611079</v>
+        <v>343.8956045381534</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>28.44561898050219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>114.8027900399226</v>
       </c>
       <c r="P26" t="n">
-        <v>535.1777515756431</v>
+        <v>535.1777515756436</v>
       </c>
       <c r="Q26" t="n">
         <v>356.1520213378618</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K27" t="n">
-        <v>45.96611864591689</v>
+        <v>458.5318883855396</v>
       </c>
       <c r="L27" t="n">
-        <v>92.22090873812711</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="M27" t="n">
-        <v>570.6529295150708</v>
+        <v>351.2033456265657</v>
       </c>
       <c r="N27" t="n">
-        <v>570.6529295150708</v>
+        <v>132.9714115480269</v>
       </c>
       <c r="O27" t="n">
-        <v>570.6529295150708</v>
+        <v>107.0541090691845</v>
       </c>
       <c r="P27" t="n">
-        <v>393.2341824399874</v>
+        <v>73.22693325354837</v>
       </c>
       <c r="Q27" t="n">
-        <v>16.17503567022881</v>
+        <v>343.8956045381534</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>28.44561898050219</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K29" t="n">
-        <v>526.721818928768</v>
+        <v>562.1969968681958</v>
       </c>
       <c r="L29" t="n">
         <v>94.35908335630597</v>
@@ -36849,13 +36849,13 @@
         <v>114.8027900399226</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6529295150708</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="Q29" t="n">
         <v>356.1520213378618</v>
       </c>
       <c r="R29" t="n">
-        <v>60.9486117454876</v>
+        <v>25.47343380606021</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K30" t="n">
-        <v>309.4221520112594</v>
+        <v>458.5318883855396</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6529295150708</v>
+        <v>92.22090873812711</v>
       </c>
       <c r="M30" t="n">
         <v>120.3265055787209</v>
       </c>
       <c r="N30" t="n">
-        <v>570.6529295150708</v>
+        <v>132.9714115480269</v>
       </c>
       <c r="O30" t="n">
-        <v>570.6529295150708</v>
+        <v>319.5610508156713</v>
       </c>
       <c r="P30" t="n">
-        <v>73.22693325354837</v>
+        <v>570.0288523318503</v>
       </c>
       <c r="Q30" t="n">
-        <v>16.17503567022881</v>
+        <v>343.8956045381534</v>
       </c>
       <c r="R30" t="n">
         <v>28.44561898050219</v>
@@ -37071,7 +37071,7 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K32" t="n">
-        <v>562.1969968681958</v>
+        <v>526.7218189287686</v>
       </c>
       <c r="L32" t="n">
         <v>94.35908335630597</v>
@@ -37086,7 +37086,7 @@
         <v>114.8027900399226</v>
       </c>
       <c r="P32" t="n">
-        <v>535.1777515756427</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="Q32" t="n">
         <v>356.1520213378618</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>45.96611864591689</v>
+        <v>458.5318883855396</v>
       </c>
       <c r="L33" t="n">
-        <v>92.22090873812711</v>
+        <v>526.7466625879974</v>
       </c>
       <c r="M33" t="n">
-        <v>529.7365112011692</v>
+        <v>120.3265055787209</v>
       </c>
       <c r="N33" t="n">
-        <v>570.6529295150707</v>
+        <v>132.9714115480269</v>
       </c>
       <c r="O33" t="n">
         <v>107.0541090691845</v>
@@ -37308,10 +37308,10 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K35" t="n">
-        <v>56.53015325717877</v>
+        <v>562.1969968681958</v>
       </c>
       <c r="L35" t="n">
-        <v>570.6529295150707</v>
+        <v>94.35908335630597</v>
       </c>
       <c r="M35" t="n">
         <v>125.7857262713674</v>
@@ -37320,16 +37320,16 @@
         <v>130.8503389548827</v>
       </c>
       <c r="O35" t="n">
-        <v>570.6529295150707</v>
+        <v>114.8027900399226</v>
       </c>
       <c r="P35" t="n">
-        <v>169.6492212982348</v>
+        <v>535.1777515756436</v>
       </c>
       <c r="Q35" t="n">
         <v>356.1520213378618</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.9486117454876</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K36" t="n">
-        <v>45.96611864591689</v>
+        <v>220.7124061956764</v>
       </c>
       <c r="L36" t="n">
-        <v>519.6607905220251</v>
+        <v>92.22090873812711</v>
       </c>
       <c r="M36" t="n">
-        <v>570.6529295150707</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="N36" t="n">
-        <v>570.6529295150707</v>
+        <v>132.9714115480269</v>
       </c>
       <c r="O36" t="n">
         <v>107.0541090691845</v>
       </c>
       <c r="P36" t="n">
-        <v>73.22693325354837</v>
+        <v>570.0288523318503</v>
       </c>
       <c r="Q36" t="n">
         <v>343.8956045381534</v>
@@ -37548,7 +37548,7 @@
         <v>562.1969968681958</v>
       </c>
       <c r="L38" t="n">
-        <v>94.35908335630597</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="M38" t="n">
         <v>125.7857262713674</v>
@@ -37560,10 +37560,10 @@
         <v>114.8027900399226</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6529295150707</v>
+        <v>390.0952908463296</v>
       </c>
       <c r="Q38" t="n">
-        <v>320.6768433984337</v>
+        <v>24.94063590841054</v>
       </c>
       <c r="R38" t="n">
         <v>60.9486117454876</v>
@@ -37627,7 +37627,7 @@
         <v>458.5318883855396</v>
       </c>
       <c r="L39" t="n">
-        <v>570.6529295150707</v>
+        <v>304.727850484614</v>
       </c>
       <c r="M39" t="n">
         <v>120.3265055787209</v>
@@ -37636,16 +37636,16 @@
         <v>132.9714115480269</v>
       </c>
       <c r="O39" t="n">
-        <v>197.2952178871537</v>
+        <v>107.0541090691845</v>
       </c>
       <c r="P39" t="n">
         <v>570.0288523318503</v>
       </c>
       <c r="Q39" t="n">
-        <v>16.17503567022881</v>
+        <v>343.8956045381534</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>28.44561898050219</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K41" t="n">
-        <v>562.1969968681958</v>
+        <v>56.53015325717877</v>
       </c>
       <c r="L41" t="n">
-        <v>390.0952908463289</v>
+        <v>94.35908335630597</v>
       </c>
       <c r="M41" t="n">
-        <v>125.7857262713674</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="N41" t="n">
         <v>130.8503389548827</v>
       </c>
       <c r="O41" t="n">
-        <v>114.8027900399226</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6529295150707</v>
+        <v>140.1272524678091</v>
       </c>
       <c r="Q41" t="n">
-        <v>24.94063590841054</v>
+        <v>356.1520213378618</v>
       </c>
       <c r="R41" t="n">
         <v>60.9486117454876</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>193.5731931228811</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>458.5318883855396</v>
@@ -37867,22 +37867,22 @@
         <v>92.22090873812711</v>
       </c>
       <c r="M42" t="n">
-        <v>361.2790663057091</v>
+        <v>120.3265055787209</v>
       </c>
       <c r="N42" t="n">
-        <v>132.9714115480269</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="O42" t="n">
         <v>107.0541090691845</v>
       </c>
       <c r="P42" t="n">
-        <v>570.0288523318503</v>
+        <v>538.4274692341742</v>
       </c>
       <c r="Q42" t="n">
         <v>343.8956045381534</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>28.44561898050219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>279.2817138898049</v>
       </c>
       <c r="K44" t="n">
-        <v>526.721818928769</v>
+        <v>56.53015325717877</v>
       </c>
       <c r="L44" t="n">
-        <v>94.35908335630597</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="M44" t="n">
-        <v>125.7857262713674</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="N44" t="n">
-        <v>130.8503389548827</v>
+        <v>175.2045317775521</v>
       </c>
       <c r="O44" t="n">
         <v>114.8027900399226</v>
       </c>
       <c r="P44" t="n">
-        <v>570.652929515071</v>
+        <v>75.32935296152311</v>
       </c>
       <c r="Q44" t="n">
         <v>356.1520213378618</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>193.5731931228811</v>
       </c>
       <c r="K45" t="n">
         <v>45.96611864591689</v>
@@ -38104,19 +38104,19 @@
         <v>92.22090873812711</v>
       </c>
       <c r="M45" t="n">
-        <v>570.652929515071</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="N45" t="n">
-        <v>570.652929515071</v>
+        <v>340.9207977302017</v>
       </c>
       <c r="O45" t="n">
-        <v>570.652929515071</v>
+        <v>570.6529295150709</v>
       </c>
       <c r="P45" t="n">
         <v>73.22693325354837</v>
       </c>
       <c r="Q45" t="n">
-        <v>307.7366658761654</v>
+        <v>343.8956045381534</v>
       </c>
       <c r="R45" t="n">
         <v>28.44561898050219</v>
